--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="152">
   <si>
     <t>Doi</t>
   </si>
@@ -510,6 +510,60 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,    Ashraf A%Ewis%NULL%1,    Eman M%Mahfouz%NULL%1,    Doaa M%Khalil%NULL%1,    Ahmed%Arafa%NULL%1,    Zeinab%Mohammed%NULL%1,    El-Nabgha F%Mohammed%NULL%1,    Ebtesam E%Hassan%NULL%1,    Sarah%Abdel Hamid%NULL%1,    Somaya A%Ewis%NULL%1,    Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,     Sabrina%Donati Zeppa%NULL%2,     Sabrina%Donati Zeppa%NULL%0,     Antonio%Preti%NULL%2,     Antonio%Preti%NULL%0,     Marco%Gervasi%NULL%2,     Marco%Gervasi%NULL%0,     Erica%Gobbi%NULL%2,     Erica%Gobbi%NULL%0,     Fabio%Ferrini%NULL%2,     Fabio%Ferrini%NULL%0,     Marco B. L.%Rocchi%NULL%1,     Carlo%Baldari%NULL%2,     Carlo%Baldari%NULL%0,     Fabrizio%Perroni%NULL%2,     Fabrizio%Perroni%NULL%0,     Giovanni%Piccoli%NULL%2,     Giovanni%Piccoli%NULL%0,     Vilberto%Stocchi%NULL%1,     Piero%Sestili%NULL%1,     Davide%Sisti%NULL%2,     Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,     Dominika%Ochnik%NULL%1,     Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,   March%L%coreGivesNoEmail%1,   Marshall%S.%coreGivesNoEmail%1,   Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,     Cyril%Tarquinio%NULL%1,     Martine%Batt%NULL%1,     Pascale%Tarquinio%NULL%1,     Romain%Lebreuilly%NULL%1,     Christine%Sorsana%NULL%1,     Karine%Legrand%NULL%1,     Hélène%Rousseau%NULL%1,     Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,     Shun-wei%Liang%NULL%1,     Yang%Peng%NULL%1,     Xue-guo%Li%NULL%1,     Jian-bin%Chen%NULL%1,     Si-yao%Tang%NULL%1,     Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,     Benjamin%Becker%NULL%1,     Qian%Yu%NULL%1,     Peter%Willeit%NULL%1,     Can%Jiao%NULL%1,     Liuyue%Huang%NULL%1,     M. Mahhub%Hossain%NULL%1,     Igor%Grabovac%NULL%1,     Albert%Yeung%NULL%1,     Jingyuan%Lin%NULL%1,     Nicola%Veronese%NULL%1,     Jian%Wang%NULL%2,     Xinqi%Zhou%NULL%1,     Scott R.%Doig%NULL%1,     Xiaofeng%Liu%NULL%1,     Andre F.%Carvalho%NULL%1,     Lin%Yang%NULL%2,     Tao%Xiao%NULL%1,     Liye%Zou%NULL%1,     Paolo%Fusar-Poli%NULL%1,     Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,     Foster Kofi%Ayittey%NULL%2,     Foster Kofi%Ayittey%NULL%0,     Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,   Lovibond%P.%coreGivesNoEmail%1,   Lozano%M.%coreGivesNoEmail%1,   Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,   Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,     Annina%Zysset%NULL%2,     Annina%Zysset%NULL%0,     Nadine%Schlatter%NULL%1,     Agnes%von Wyl%NULL%1,     Marion%Huber%NULL%1,     Thomas%Volken%NULL%2,     Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,     Megan Chong Hueh%Zan%NULL%2,     Megan Chong Hueh%Zan%NULL%0,     Min Jung%Cho%NULL%1,     Jenifer I.%Fenton%NULL%2,     Jenifer I.%Fenton%NULL%0,     Pao Ying%Hsiao%NULL%2,     Pao Ying%Hsiao%NULL%0,     Richard%Hsiao%NULL%1,     Laura%Keaver%NULL%1,     Chang-Chi%Lai%NULL%2,     Chang-Chi%Lai%NULL%0,     HeeSoon%Lee%NULL%1,     Mary-Jon%Ludy%NULL%2,     Mary-Jon%Ludy%NULL%0,     Wan%Shen%NULL%1,     Winnie Chee Siew%Swee%NULL%2,     Winnie Chee Siew%Swee%NULL%0,     Jyothi%Thrivikraman%NULL%2,     Jyothi%Thrivikraman%NULL%0,     Kuo-Wei%Tseng%NULL%1,     Wei-Chin%Tseng%NULL%1,     Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,     Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,     Shijiao%Yan%NULL%1,     Qiao%Zong%NULL%1,     Dan%Anderson-Luxford%NULL%1,     Xingyue%Song%NULL%1,     Zhiyue%Lv%NULL%1,     Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,     Viera%Ivankova%NULL%2,     Viera%Ivankova%NULL%0,     Martin%Rigelsky%NULL%2,     Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,     Ashraf A%Ewis%NULL%1,     Eman M%Mahfouz%NULL%1,     Doaa M%Khalil%NULL%1,     Ahmed%Arafa%NULL%1,     Zeinab%Mohammed%NULL%1,     El-Nabgha F%Mohammed%NULL%1,     Ebtesam E%Hassan%NULL%1,     Sarah%Abdel Hamid%NULL%1,     Somaya A%Ewis%NULL%1,     Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -868,6 +922,9 @@
       <c r="H1" t="s">
         <v>28</v>
       </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -883,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -893,6 +950,9 @@
       </c>
       <c r="H2" t="s">
         <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -909,7 +969,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -919,6 +979,9 @@
       </c>
       <c r="H3" t="s">
         <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -938,13 +1001,16 @@
         <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -961,16 +1027,19 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +1056,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -997,6 +1066,9 @@
       </c>
       <c r="H6" t="s">
         <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -1013,7 +1085,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1023,6 +1095,9 @@
       </c>
       <c r="H7" t="s">
         <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -1039,7 +1114,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1049,6 +1124,9 @@
       </c>
       <c r="H8" t="s">
         <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1143,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1075,6 +1153,9 @@
       </c>
       <c r="H9" t="s">
         <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1091,16 +1172,19 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1201,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1127,6 +1211,9 @@
       </c>
       <c r="H11" t="s">
         <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -1143,7 +1230,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1153,6 +1240,9 @@
       </c>
       <c r="H12" t="s">
         <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -1169,7 +1259,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1179,6 +1269,9 @@
       </c>
       <c r="H13" t="s">
         <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1206,6 +1299,9 @@
       <c r="H14" t="s">
         <v>40</v>
       </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
@@ -1221,7 +1317,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1231,6 +1327,9 @@
       </c>
       <c r="H15" t="s">
         <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1346,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1257,6 +1356,9 @@
       </c>
       <c r="H16" t="s">
         <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -1273,7 +1375,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -1283,6 +1385,9 @@
       </c>
       <c r="H17" t="s">
         <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="194">
   <si>
     <t>Doi</t>
   </si>
@@ -564,6 +564,132 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,     Ashraf A%Ewis%NULL%1,     Eman M%Mahfouz%NULL%1,     Doaa M%Khalil%NULL%1,     Ahmed%Arafa%NULL%1,     Zeinab%Mohammed%NULL%1,     El-Nabgha F%Mohammed%NULL%1,     Ebtesam E%Hassan%NULL%1,     Sarah%Abdel Hamid%NULL%1,     Somaya A%Ewis%NULL%1,     Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,      Sabrina%Donati Zeppa%NULL%2,      Sabrina%Donati Zeppa%NULL%0,      Antonio%Preti%NULL%2,      Antonio%Preti%NULL%0,      Marco%Gervasi%NULL%2,      Marco%Gervasi%NULL%0,      Erica%Gobbi%NULL%2,      Erica%Gobbi%NULL%0,      Fabio%Ferrini%NULL%2,      Fabio%Ferrini%NULL%0,      Marco B. L.%Rocchi%NULL%1,      Carlo%Baldari%NULL%2,      Carlo%Baldari%NULL%0,      Fabrizio%Perroni%NULL%2,      Fabrizio%Perroni%NULL%0,      Giovanni%Piccoli%NULL%2,      Giovanni%Piccoli%NULL%0,      Vilberto%Stocchi%NULL%1,      Piero%Sestili%NULL%1,      Davide%Sisti%NULL%2,      Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,      Dominika%Ochnik%NULL%1,      Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,    March%L%coreGivesNoEmail%1,    Marshall%S.%coreGivesNoEmail%1,    Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,      Cyril%Tarquinio%NULL%1,      Martine%Batt%NULL%1,      Pascale%Tarquinio%NULL%1,      Romain%Lebreuilly%NULL%1,      Christine%Sorsana%NULL%1,      Karine%Legrand%NULL%1,      Hélène%Rousseau%NULL%1,      Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,      Shun-wei%Liang%NULL%1,      Yang%Peng%NULL%1,      Xue-guo%Li%NULL%1,      Jian-bin%Chen%NULL%1,      Si-yao%Tang%NULL%1,      Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,      Benjamin%Becker%NULL%1,      Qian%Yu%NULL%1,      Peter%Willeit%NULL%1,      Can%Jiao%NULL%1,      Liuyue%Huang%NULL%1,      M. Mahhub%Hossain%NULL%1,      Igor%Grabovac%NULL%1,      Albert%Yeung%NULL%1,      Jingyuan%Lin%NULL%1,      Nicola%Veronese%NULL%1,      Jian%Wang%NULL%2,      Xinqi%Zhou%NULL%1,      Scott R.%Doig%NULL%1,      Xiaofeng%Liu%NULL%1,      Andre F.%Carvalho%NULL%1,      Lin%Yang%NULL%0,      Tao%Xiao%NULL%1,      Liye%Zou%NULL%1,      Paolo%Fusar-Poli%NULL%1,      Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,      Foster Kofi%Ayittey%NULL%2,      Foster Kofi%Ayittey%NULL%0,      Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,    Lovibond%P.%coreGivesNoEmail%1,    Lozano%M.%coreGivesNoEmail%1,    Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,    Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,      Annina%Zysset%NULL%2,      Annina%Zysset%NULL%0,      Nadine%Schlatter%NULL%1,      Agnes%von Wyl%NULL%1,      Marion%Huber%NULL%1,      Thomas%Volken%NULL%2,      Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,      Megan Chong Hueh%Zan%NULL%2,      Megan Chong Hueh%Zan%NULL%0,      Min Jung%Cho%NULL%1,      Jenifer I.%Fenton%NULL%2,      Jenifer I.%Fenton%NULL%0,      Pao Ying%Hsiao%NULL%2,      Pao Ying%Hsiao%NULL%0,      Richard%Hsiao%NULL%1,      Laura%Keaver%NULL%1,      Chang-Chi%Lai%NULL%2,      Chang-Chi%Lai%NULL%0,      HeeSoon%Lee%NULL%1,      Mary-Jon%Ludy%NULL%2,      Mary-Jon%Ludy%NULL%0,      Wan%Shen%NULL%1,      Winnie Chee Siew%Swee%NULL%2,      Winnie Chee Siew%Swee%NULL%0,      Jyothi%Thrivikraman%NULL%2,      Jyothi%Thrivikraman%NULL%0,      Kuo-Wei%Tseng%NULL%1,      Wei-Chin%Tseng%NULL%1,      Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,      Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,      Shijiao%Yan%NULL%0,      Qiao%Zong%NULL%1,      Dan%Anderson-Luxford%NULL%1,      Xingyue%Song%NULL%1,      Zhiyue%Lv%NULL%1,      Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,      Viera%Ivankova%NULL%2,      Viera%Ivankova%NULL%0,      Martin%Rigelsky%NULL%2,      Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,      Ashraf A%Ewis%NULL%1,      Eman M%Mahfouz%NULL%1,      Doaa M%Khalil%NULL%1,      Ahmed%Arafa%NULL%1,      Zeinab%Mohammed%NULL%1,      El-Nabgha F%Mohammed%NULL%1,      Ebtesam E%Hassan%NULL%1,      Sarah%Abdel Hamid%NULL%1,      Somaya A%Ewis%NULL%1,      Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,       Sabrina%Donati Zeppa%NULL%2,       Sabrina%Donati Zeppa%NULL%0,       Antonio%Preti%NULL%2,       Antonio%Preti%NULL%0,       Marco%Gervasi%NULL%2,       Marco%Gervasi%NULL%0,       Erica%Gobbi%NULL%2,       Erica%Gobbi%NULL%0,       Fabio%Ferrini%NULL%2,       Fabio%Ferrini%NULL%0,       Marco B. L.%Rocchi%NULL%1,       Carlo%Baldari%NULL%2,       Carlo%Baldari%NULL%0,       Fabrizio%Perroni%NULL%2,       Fabrizio%Perroni%NULL%0,       Giovanni%Piccoli%NULL%2,       Giovanni%Piccoli%NULL%0,       Vilberto%Stocchi%NULL%1,       Piero%Sestili%NULL%1,       Davide%Sisti%NULL%2,       Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,       Dominika%Ochnik%NULL%1,       Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,     March%L%coreGivesNoEmail%1,     Marshall%S.%coreGivesNoEmail%1,     Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,       Cyril%Tarquinio%NULL%1,       Martine%Batt%NULL%1,       Pascale%Tarquinio%NULL%1,       Romain%Lebreuilly%NULL%1,       Christine%Sorsana%NULL%1,       Karine%Legrand%NULL%1,       Hélène%Rousseau%NULL%1,       Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,       Shun-wei%Liang%NULL%1,       Yang%Peng%NULL%1,       Xue-guo%Li%NULL%1,       Jian-bin%Chen%NULL%1,       Si-yao%Tang%NULL%1,       Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,       Benjamin%Becker%NULL%1,       Qian%Yu%NULL%1,       Peter%Willeit%NULL%1,       Can%Jiao%NULL%1,       Liuyue%Huang%NULL%1,       M. Mahhub%Hossain%NULL%1,       Igor%Grabovac%NULL%1,       Albert%Yeung%NULL%1,       Jingyuan%Lin%NULL%1,       Nicola%Veronese%NULL%1,       Jian%Wang%NULL%2,       Xinqi%Zhou%NULL%1,       Scott R.%Doig%NULL%1,       Xiaofeng%Liu%NULL%1,       Andre F.%Carvalho%NULL%1,       Lin%Yang%NULL%0,       Tao%Xiao%NULL%1,       Liye%Zou%NULL%1,       Paolo%Fusar-Poli%NULL%1,       Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,       Foster Kofi%Ayittey%NULL%2,       Foster Kofi%Ayittey%NULL%0,       Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,     Lovibond%P.%coreGivesNoEmail%1,     Lozano%M.%coreGivesNoEmail%1,     Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,     Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,       Annina%Zysset%NULL%2,       Annina%Zysset%NULL%0,       Nadine%Schlatter%NULL%1,       Agnes%von Wyl%NULL%1,       Marion%Huber%NULL%1,       Thomas%Volken%NULL%2,       Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,       Megan Chong Hueh%Zan%NULL%2,       Megan Chong Hueh%Zan%NULL%0,       Min Jung%Cho%NULL%1,       Jenifer I.%Fenton%NULL%2,       Jenifer I.%Fenton%NULL%0,       Pao Ying%Hsiao%NULL%2,       Pao Ying%Hsiao%NULL%0,       Richard%Hsiao%NULL%1,       Laura%Keaver%NULL%1,       Chang-Chi%Lai%NULL%2,       Chang-Chi%Lai%NULL%0,       HeeSoon%Lee%NULL%1,       Mary-Jon%Ludy%NULL%2,       Mary-Jon%Ludy%NULL%0,       Wan%Shen%NULL%1,       Winnie Chee Siew%Swee%NULL%2,       Winnie Chee Siew%Swee%NULL%0,       Jyothi%Thrivikraman%NULL%2,       Jyothi%Thrivikraman%NULL%0,       Kuo-Wei%Tseng%NULL%1,       Wei-Chin%Tseng%NULL%1,       Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,       Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,       Shijiao%Yan%NULL%0,       Qiao%Zong%NULL%1,       Dan%Anderson-Luxford%NULL%1,       Xingyue%Song%NULL%1,       Zhiyue%Lv%NULL%1,       Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,       Viera%Ivankova%NULL%2,       Viera%Ivankova%NULL%0,       Martin%Rigelsky%NULL%2,       Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,       Ashraf A%Ewis%NULL%1,       Eman M%Mahfouz%NULL%1,       Doaa M%Khalil%NULL%1,       Ahmed%Arafa%NULL%1,       Zeinab%Mohammed%NULL%1,       El-Nabgha F%Mohammed%NULL%1,       Ebtesam E%Hassan%NULL%1,       Sarah%Abdel Hamid%NULL%1,       Somaya A%Ewis%NULL%1,       Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,        Sabrina%Donati Zeppa%NULL%2,        Sabrina%Donati Zeppa%NULL%0,        Antonio%Preti%NULL%2,        Antonio%Preti%NULL%0,        Marco%Gervasi%NULL%2,        Marco%Gervasi%NULL%0,        Erica%Gobbi%NULL%2,        Erica%Gobbi%NULL%0,        Fabio%Ferrini%NULL%2,        Fabio%Ferrini%NULL%0,        Marco B. L.%Rocchi%NULL%1,        Carlo%Baldari%NULL%2,        Carlo%Baldari%NULL%0,        Fabrizio%Perroni%NULL%2,        Fabrizio%Perroni%NULL%0,        Giovanni%Piccoli%NULL%2,        Giovanni%Piccoli%NULL%0,        Vilberto%Stocchi%NULL%1,        Piero%Sestili%NULL%1,        Davide%Sisti%NULL%2,        Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,        Dominika%Ochnik%NULL%1,        Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,      March%L%coreGivesNoEmail%1,      Marshall%S.%coreGivesNoEmail%1,      Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,        Cyril%Tarquinio%NULL%1,        Martine%Batt%NULL%1,        Pascale%Tarquinio%NULL%1,        Romain%Lebreuilly%NULL%1,        Christine%Sorsana%NULL%1,        Karine%Legrand%NULL%1,        Hélène%Rousseau%NULL%1,        Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,        Shun-wei%Liang%NULL%1,        Yang%Peng%NULL%1,        Xue-guo%Li%NULL%1,        Jian-bin%Chen%NULL%1,        Si-yao%Tang%NULL%1,        Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,        Benjamin%Becker%NULL%1,        Qian%Yu%NULL%1,        Peter%Willeit%NULL%1,        Can%Jiao%NULL%1,        Liuyue%Huang%NULL%1,        M. Mahhub%Hossain%NULL%1,        Igor%Grabovac%NULL%1,        Albert%Yeung%NULL%1,        Jingyuan%Lin%NULL%1,        Nicola%Veronese%NULL%1,        Jian%Wang%NULL%2,        Xinqi%Zhou%NULL%1,        Scott R.%Doig%NULL%1,        Xiaofeng%Liu%NULL%1,        Andre F.%Carvalho%NULL%1,        Lin%Yang%NULL%0,        Tao%Xiao%NULL%1,        Liye%Zou%NULL%1,        Paolo%Fusar-Poli%NULL%1,        Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,        Foster Kofi%Ayittey%NULL%2,        Foster Kofi%Ayittey%NULL%0,        Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,      Lovibond%P.%coreGivesNoEmail%1,      Lozano%M.%coreGivesNoEmail%1,      Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,      Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,        Annina%Zysset%NULL%2,        Annina%Zysset%NULL%0,        Nadine%Schlatter%NULL%1,        Agnes%von Wyl%NULL%1,        Marion%Huber%NULL%1,        Thomas%Volken%NULL%2,        Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,        Megan Chong Hueh%Zan%NULL%2,        Megan Chong Hueh%Zan%NULL%0,        Min Jung%Cho%NULL%1,        Jenifer I.%Fenton%NULL%2,        Jenifer I.%Fenton%NULL%0,        Pao Ying%Hsiao%NULL%2,        Pao Ying%Hsiao%NULL%0,        Richard%Hsiao%NULL%1,        Laura%Keaver%NULL%1,        Chang-Chi%Lai%NULL%2,        Chang-Chi%Lai%NULL%0,        HeeSoon%Lee%NULL%1,        Mary-Jon%Ludy%NULL%2,        Mary-Jon%Ludy%NULL%0,        Wan%Shen%NULL%1,        Winnie Chee Siew%Swee%NULL%2,        Winnie Chee Siew%Swee%NULL%0,        Jyothi%Thrivikraman%NULL%2,        Jyothi%Thrivikraman%NULL%0,        Kuo-Wei%Tseng%NULL%1,        Wei-Chin%Tseng%NULL%1,        Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,        Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,        Shijiao%Yan%NULL%0,        Qiao%Zong%NULL%1,        Dan%Anderson-Luxford%NULL%1,        Xingyue%Song%NULL%1,        Zhiyue%Lv%NULL%1,        Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,        Viera%Ivankova%NULL%2,        Viera%Ivankova%NULL%0,        Martin%Rigelsky%NULL%2,        Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,        Ashraf A%Ewis%NULL%1,        Eman M%Mahfouz%NULL%1,        Doaa M%Khalil%NULL%1,        Ahmed%Arafa%NULL%1,        Zeinab%Mohammed%NULL%1,        El-Nabgha F%Mohammed%NULL%1,        Ebtesam E%Hassan%NULL%1,        Sarah%Abdel Hamid%NULL%1,        Somaya A%Ewis%NULL%1,        Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -969,7 +1095,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1001,10 +1127,10 @@
         <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
@@ -1027,13 +1153,13 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
@@ -1056,7 +1182,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1085,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1114,7 +1240,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1143,7 +1269,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1172,13 +1298,13 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -1201,7 +1327,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1230,7 +1356,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1259,7 +1385,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1317,7 +1443,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1346,7 +1472,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1375,7 +1501,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="227">
   <si>
     <t>Doi</t>
   </si>
@@ -690,6 +690,105 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,        Ashraf A%Ewis%NULL%1,        Eman M%Mahfouz%NULL%1,        Doaa M%Khalil%NULL%1,        Ahmed%Arafa%NULL%1,        Zeinab%Mohammed%NULL%1,        El-Nabgha F%Mohammed%NULL%1,        Ebtesam E%Hassan%NULL%1,        Sarah%Abdel Hamid%NULL%1,        Somaya A%Ewis%NULL%1,        Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,         Sabrina%Donati Zeppa%NULL%2,         Sabrina%Donati Zeppa%NULL%0,         Antonio%Preti%NULL%2,         Antonio%Preti%NULL%0,         Marco%Gervasi%NULL%2,         Marco%Gervasi%NULL%0,         Erica%Gobbi%NULL%2,         Erica%Gobbi%NULL%0,         Fabio%Ferrini%NULL%2,         Fabio%Ferrini%NULL%0,         Marco B. L.%Rocchi%NULL%1,         Carlo%Baldari%NULL%2,         Carlo%Baldari%NULL%0,         Fabrizio%Perroni%NULL%2,         Fabrizio%Perroni%NULL%0,         Giovanni%Piccoli%NULL%2,         Giovanni%Piccoli%NULL%0,         Vilberto%Stocchi%NULL%1,         Piero%Sestili%NULL%1,         Davide%Sisti%NULL%2,         Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,         Dominika%Ochnik%NULL%1,         Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,       March%L%coreGivesNoEmail%1,       Marshall%S.%coreGivesNoEmail%1,       Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,         Cyril%Tarquinio%NULL%1,         Martine%Batt%NULL%1,         Pascale%Tarquinio%NULL%1,         Romain%Lebreuilly%NULL%1,         Christine%Sorsana%NULL%1,         Karine%Legrand%NULL%1,         Hélène%Rousseau%NULL%1,         Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,         Shun-wei%Liang%NULL%1,         Yang%Peng%NULL%1,         Xue-guo%Li%NULL%1,         Jian-bin%Chen%NULL%1,         Si-yao%Tang%NULL%1,         Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,         Benjamin%Becker%NULL%0,         Qian%Yu%NULL%0,         Peter%Willeit%NULL%0,         Can%Jiao%NULL%0,         Liuyue%Huang%NULL%0,         M. Mahhub%Hossain%NULL%0,         Igor%Grabovac%NULL%0,         Albert%Yeung%NULL%0,         Jingyuan%Lin%NULL%0,         Nicola%Veronese%NULL%0,         Jian%Wang%NULL%0,         Xinqi%Zhou%NULL%0,         Scott R.%Doig%NULL%0,         Xiaofeng%Liu%NULL%0,         Andre F.%Carvalho%NULL%0,         Lin%Yang%NULL%0,         Tao%Xiao%NULL%0,         Liye%Zou%NULL%0,         Paolo%Fusar-Poli%NULL%0,         Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,         Foster Kofi%Ayittey%NULL%2,         Foster Kofi%Ayittey%NULL%0,         Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,       Lovibond%P.%coreGivesNoEmail%1,       Lozano%M.%coreGivesNoEmail%1,       Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,       Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,         Annina%Zysset%NULL%2,         Annina%Zysset%NULL%0,         Nadine%Schlatter%NULL%1,         Agnes%von Wyl%NULL%1,         Marion%Huber%NULL%1,         Thomas%Volken%NULL%2,         Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,         Megan Chong Hueh%Zan%NULL%2,         Megan Chong Hueh%Zan%NULL%0,         Min Jung%Cho%NULL%1,         Jenifer I.%Fenton%NULL%2,         Jenifer I.%Fenton%NULL%0,         Pao Ying%Hsiao%NULL%2,         Pao Ying%Hsiao%NULL%0,         Richard%Hsiao%NULL%1,         Laura%Keaver%NULL%1,         Chang-Chi%Lai%NULL%2,         Chang-Chi%Lai%NULL%0,         HeeSoon%Lee%NULL%1,         Mary-Jon%Ludy%NULL%2,         Mary-Jon%Ludy%NULL%0,         Wan%Shen%NULL%1,         Winnie Chee Siew%Swee%NULL%2,         Winnie Chee Siew%Swee%NULL%0,         Jyothi%Thrivikraman%NULL%2,         Jyothi%Thrivikraman%NULL%0,         Kuo-Wei%Tseng%NULL%1,         Wei-Chin%Tseng%NULL%1,         Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,         Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>"E\u2010learning: Depression, anxiety, and stress symptomatology among Lebanese university students during COVID\u201019 quarantine"</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1, Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,         Shijiao%Yan%NULL%0,         Qiao%Zong%NULL%1,         Dan%Anderson-Luxford%NULL%1,         Xingyue%Song%NULL%1,         Zhiyue%Lv%NULL%1,         Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,         Viera%Ivankova%NULL%2,         Viera%Ivankova%NULL%0,         Martin%Rigelsky%NULL%2,         Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,         Ashraf A%Ewis%NULL%1,         Eman M%Mahfouz%NULL%1,         Doaa M%Khalil%NULL%1,         Ahmed%Arafa%NULL%1,         Zeinab%Mohammed%NULL%1,         El-Nabgha F%Mohammed%NULL%1,         Ebtesam E%Hassan%NULL%1,         Sarah%Abdel Hamid%NULL%1,         Somaya A%Ewis%NULL%1,         Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,          Sabrina%Donati Zeppa%NULL%2,          Sabrina%Donati Zeppa%NULL%0,          Antonio%Preti%NULL%2,          Antonio%Preti%NULL%0,          Marco%Gervasi%NULL%2,          Marco%Gervasi%NULL%0,          Erica%Gobbi%NULL%2,          Erica%Gobbi%NULL%0,          Fabio%Ferrini%NULL%2,          Fabio%Ferrini%NULL%0,          Marco B. L.%Rocchi%NULL%1,          Carlo%Baldari%NULL%2,          Carlo%Baldari%NULL%0,          Fabrizio%Perroni%NULL%2,          Fabrizio%Perroni%NULL%0,          Giovanni%Piccoli%NULL%2,          Giovanni%Piccoli%NULL%0,          Vilberto%Stocchi%NULL%1,          Piero%Sestili%NULL%1,          Davide%Sisti%NULL%2,          Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,          Dominika%Ochnik%NULL%1,          Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,        March%L%coreGivesNoEmail%1,        Marshall%S.%coreGivesNoEmail%1,        Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,          Cyril%Tarquinio%NULL%1,          Martine%Batt%NULL%1,          Pascale%Tarquinio%NULL%1,          Romain%Lebreuilly%NULL%1,          Christine%Sorsana%NULL%1,          Karine%Legrand%NULL%1,          Hélène%Rousseau%NULL%1,          Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,          Shun-wei%Liang%NULL%1,          Yang%Peng%NULL%1,          Xue-guo%Li%NULL%1,          Jian-bin%Chen%NULL%1,          Si-yao%Tang%NULL%1,          Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,          Benjamin%Becker%NULL%0,          Qian%Yu%NULL%0,          Peter%Willeit%NULL%0,          Can%Jiao%NULL%0,          Liuyue%Huang%NULL%0,          M. Mahhub%Hossain%NULL%0,          Igor%Grabovac%NULL%0,          Albert%Yeung%NULL%0,          Jingyuan%Lin%NULL%0,          Nicola%Veronese%NULL%0,          Jian%Wang%NULL%0,          Xinqi%Zhou%NULL%0,          Scott R.%Doig%NULL%0,          Xiaofeng%Liu%NULL%0,          Andre F.%Carvalho%NULL%0,          Lin%Yang%NULL%0,          Tao%Xiao%NULL%0,          Liye%Zou%NULL%0,          Paolo%Fusar-Poli%NULL%0,          Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,          Foster Kofi%Ayittey%NULL%2,          Foster Kofi%Ayittey%NULL%0,          Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,        Lovibond%P.%coreGivesNoEmail%1,        Lozano%M.%coreGivesNoEmail%1,        Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,        Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,          Annina%Zysset%NULL%2,          Annina%Zysset%NULL%0,          Nadine%Schlatter%NULL%1,          Agnes%von Wyl%NULL%1,          Marion%Huber%NULL%1,          Thomas%Volken%NULL%2,          Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,          Megan Chong Hueh%Zan%NULL%2,          Megan Chong Hueh%Zan%NULL%0,          Min Jung%Cho%NULL%1,          Jenifer I.%Fenton%NULL%2,          Jenifer I.%Fenton%NULL%0,          Pao Ying%Hsiao%NULL%2,          Pao Ying%Hsiao%NULL%0,          Richard%Hsiao%NULL%1,          Laura%Keaver%NULL%1,          Chang-Chi%Lai%NULL%2,          Chang-Chi%Lai%NULL%0,          HeeSoon%Lee%NULL%1,          Mary-Jon%Ludy%NULL%2,          Mary-Jon%Ludy%NULL%0,          Wan%Shen%NULL%1,          Winnie Chee Siew%Swee%NULL%2,          Winnie Chee Siew%Swee%NULL%0,          Jyothi%Thrivikraman%NULL%2,          Jyothi%Thrivikraman%NULL%0,          Kuo-Wei%Tseng%NULL%1,          Wei-Chin%Tseng%NULL%1,          Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,          Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,  Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,          Shijiao%Yan%NULL%0,          Qiao%Zong%NULL%1,          Dan%Anderson-Luxford%NULL%1,          Xingyue%Song%NULL%1,          Zhiyue%Lv%NULL%1,          Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,          Viera%Ivankova%NULL%2,          Viera%Ivankova%NULL%0,          Martin%Rigelsky%NULL%2,          Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,          Ashraf A%Ewis%NULL%1,          Eman M%Mahfouz%NULL%1,          Doaa M%Khalil%NULL%1,          Ahmed%Arafa%NULL%1,          Zeinab%Mohammed%NULL%1,          El-Nabgha F%Mohammed%NULL%1,          Ebtesam E%Hassan%NULL%1,          Sarah%Abdel Hamid%NULL%1,          Somaya A%Ewis%NULL%1,          Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1095,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1153,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1182,7 +1281,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1211,7 +1310,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1240,7 +1339,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1269,7 +1368,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1298,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1327,7 +1426,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1356,7 +1455,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1385,7 +1484,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1408,22 +1507,22 @@
         <v>44134.0</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
@@ -1443,7 +1542,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1472,7 +1571,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1501,7 +1600,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="257">
   <si>
     <t>Doi</t>
   </si>
@@ -789,6 +789,96 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,          Ashraf A%Ewis%NULL%1,          Eman M%Mahfouz%NULL%1,          Doaa M%Khalil%NULL%1,          Ahmed%Arafa%NULL%1,          Zeinab%Mohammed%NULL%1,          El-Nabgha F%Mohammed%NULL%1,          Ebtesam E%Hassan%NULL%1,          Sarah%Abdel Hamid%NULL%1,          Somaya A%Ewis%NULL%1,          Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,           Sabrina%Donati Zeppa%NULL%2,           Sabrina%Donati Zeppa%NULL%0,           Antonio%Preti%NULL%2,           Antonio%Preti%NULL%0,           Marco%Gervasi%NULL%2,           Marco%Gervasi%NULL%0,           Erica%Gobbi%NULL%2,           Erica%Gobbi%NULL%0,           Fabio%Ferrini%NULL%2,           Fabio%Ferrini%NULL%0,           Marco B. L.%Rocchi%NULL%1,           Carlo%Baldari%NULL%2,           Carlo%Baldari%NULL%0,           Fabrizio%Perroni%NULL%2,           Fabrizio%Perroni%NULL%0,           Giovanni%Piccoli%NULL%2,           Giovanni%Piccoli%NULL%0,           Vilberto%Stocchi%NULL%1,           Piero%Sestili%NULL%1,           Davide%Sisti%NULL%2,           Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,           Dominika%Ochnik%NULL%1,           Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,         March%L%coreGivesNoEmail%1,         Marshall%S.%coreGivesNoEmail%1,         Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,           Cyril%Tarquinio%NULL%1,           Martine%Batt%NULL%1,           Pascale%Tarquinio%NULL%1,           Romain%Lebreuilly%NULL%1,           Christine%Sorsana%NULL%1,           Karine%Legrand%NULL%1,           Hélène%Rousseau%NULL%1,           Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,           Shun-wei%Liang%NULL%1,           Yang%Peng%NULL%1,           Xue-guo%Li%NULL%1,           Jian-bin%Chen%NULL%1,           Si-yao%Tang%NULL%1,           Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,           Benjamin%Becker%NULL%0,           Qian%Yu%NULL%0,           Peter%Willeit%NULL%0,           Can%Jiao%NULL%0,           Liuyue%Huang%NULL%0,           M. Mahhub%Hossain%NULL%0,           Igor%Grabovac%NULL%0,           Albert%Yeung%NULL%0,           Jingyuan%Lin%NULL%0,           Nicola%Veronese%NULL%0,           Jian%Wang%NULL%0,           Xinqi%Zhou%NULL%0,           Scott R.%Doig%NULL%0,           Xiaofeng%Liu%NULL%0,           Andre F.%Carvalho%NULL%0,           Lin%Yang%NULL%0,           Tao%Xiao%NULL%0,           Liye%Zou%NULL%0,           Paolo%Fusar-Poli%NULL%0,           Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,           Foster Kofi%Ayittey%NULL%2,           Foster Kofi%Ayittey%NULL%0,           Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,         Lovibond%P.%coreGivesNoEmail%1,         Lozano%M.%coreGivesNoEmail%1,         Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,         Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,           Annina%Zysset%NULL%2,           Annina%Zysset%NULL%0,           Nadine%Schlatter%NULL%1,           Agnes%von Wyl%NULL%1,           Marion%Huber%NULL%1,           Thomas%Volken%NULL%2,           Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,           Megan Chong Hueh%Zan%NULL%2,           Megan Chong Hueh%Zan%NULL%0,           Min Jung%Cho%NULL%1,           Jenifer I.%Fenton%NULL%2,           Jenifer I.%Fenton%NULL%0,           Pao Ying%Hsiao%NULL%2,           Pao Ying%Hsiao%NULL%0,           Richard%Hsiao%NULL%1,           Laura%Keaver%NULL%1,           Chang-Chi%Lai%NULL%2,           Chang-Chi%Lai%NULL%0,           HeeSoon%Lee%NULL%1,           Mary-Jon%Ludy%NULL%2,           Mary-Jon%Ludy%NULL%0,           Wan%Shen%NULL%1,           Winnie Chee Siew%Swee%NULL%2,           Winnie Chee Siew%Swee%NULL%0,           Jyothi%Thrivikraman%NULL%2,           Jyothi%Thrivikraman%NULL%0,           Kuo-Wei%Tseng%NULL%1,           Wei-Chin%Tseng%NULL%1,           Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,           Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,   Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,           Shijiao%Yan%NULL%0,           Qiao%Zong%NULL%1,           Dan%Anderson-Luxford%NULL%1,           Xingyue%Song%NULL%1,           Zhiyue%Lv%NULL%1,           Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,           Viera%Ivankova%NULL%2,           Viera%Ivankova%NULL%0,           Martin%Rigelsky%NULL%2,           Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,           Ashraf A%Ewis%NULL%1,           Eman M%Mahfouz%NULL%1,           Doaa M%Khalil%NULL%1,           Ahmed%Arafa%NULL%1,           Zeinab%Mohammed%NULL%1,           El-Nabgha F%Mohammed%NULL%1,           Ebtesam E%Hassan%NULL%1,           Sarah%Abdel Hamid%NULL%1,           Somaya A%Ewis%NULL%1,           Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,            Sabrina%Donati Zeppa%NULL%2,            Sabrina%Donati Zeppa%NULL%0,            Antonio%Preti%NULL%2,            Antonio%Preti%NULL%0,            Marco%Gervasi%NULL%2,            Marco%Gervasi%NULL%0,            Erica%Gobbi%NULL%2,            Erica%Gobbi%NULL%0,            Fabio%Ferrini%NULL%2,            Fabio%Ferrini%NULL%0,            Marco B. L.%Rocchi%NULL%1,            Carlo%Baldari%NULL%2,            Carlo%Baldari%NULL%0,            Fabrizio%Perroni%NULL%2,            Fabrizio%Perroni%NULL%0,            Giovanni%Piccoli%NULL%2,            Giovanni%Piccoli%NULL%0,            Vilberto%Stocchi%NULL%1,            Piero%Sestili%NULL%1,            Davide%Sisti%NULL%2,            Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,            Dominika%Ochnik%NULL%1,            Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,          March%L%coreGivesNoEmail%1,          Marshall%S.%coreGivesNoEmail%1,          Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,            Cyril%Tarquinio%NULL%1,            Martine%Batt%NULL%1,            Pascale%Tarquinio%NULL%1,            Romain%Lebreuilly%NULL%1,            Christine%Sorsana%NULL%1,            Karine%Legrand%NULL%1,            Hélène%Rousseau%NULL%1,            Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,            Shun-wei%Liang%NULL%1,            Yang%Peng%NULL%1,            Xue-guo%Li%NULL%1,            Jian-bin%Chen%NULL%1,            Si-yao%Tang%NULL%1,            Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,            Benjamin%Becker%NULL%0,            Qian%Yu%NULL%0,            Peter%Willeit%NULL%0,            Can%Jiao%NULL%0,            Liuyue%Huang%NULL%0,            M. Mahhub%Hossain%NULL%0,            Igor%Grabovac%NULL%0,            Albert%Yeung%NULL%0,            Jingyuan%Lin%NULL%0,            Nicola%Veronese%NULL%0,            Jian%Wang%NULL%0,            Xinqi%Zhou%NULL%0,            Scott R.%Doig%NULL%0,            Xiaofeng%Liu%NULL%0,            Andre F.%Carvalho%NULL%0,            Lin%Yang%NULL%0,            Tao%Xiao%NULL%0,            Liye%Zou%NULL%0,            Paolo%Fusar-Poli%NULL%0,            Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,            Foster Kofi%Ayittey%NULL%2,            Foster Kofi%Ayittey%NULL%0,            Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,          Lovibond%P.%coreGivesNoEmail%1,          Lozano%M.%coreGivesNoEmail%1,          Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,          Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,            Annina%Zysset%NULL%2,            Annina%Zysset%NULL%0,            Nadine%Schlatter%NULL%1,            Agnes%von Wyl%NULL%1,            Marion%Huber%NULL%1,            Thomas%Volken%NULL%2,            Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,            Megan Chong Hueh%Zan%NULL%2,            Megan Chong Hueh%Zan%NULL%0,            Min Jung%Cho%NULL%1,            Jenifer I.%Fenton%NULL%2,            Jenifer I.%Fenton%NULL%0,            Pao Ying%Hsiao%NULL%2,            Pao Ying%Hsiao%NULL%0,            Richard%Hsiao%NULL%1,            Laura%Keaver%NULL%1,            Chang-Chi%Lai%NULL%2,            Chang-Chi%Lai%NULL%0,            HeeSoon%Lee%NULL%1,            Mary-Jon%Ludy%NULL%2,            Mary-Jon%Ludy%NULL%0,            Wan%Shen%NULL%1,            Winnie Chee Siew%Swee%NULL%2,            Winnie Chee Siew%Swee%NULL%0,            Jyothi%Thrivikraman%NULL%2,            Jyothi%Thrivikraman%NULL%0,            Kuo-Wei%Tseng%NULL%1,            Wei-Chin%Tseng%NULL%1,            Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,            Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,    Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,            Shijiao%Yan%NULL%0,            Qiao%Zong%NULL%1,            Dan%Anderson-Luxford%NULL%1,            Xingyue%Song%NULL%1,            Zhiyue%Lv%NULL%1,            Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,            Viera%Ivankova%NULL%2,            Viera%Ivankova%NULL%0,            Martin%Rigelsky%NULL%2,            Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,            Ashraf A%Ewis%NULL%1,            Eman M%Mahfouz%NULL%1,            Doaa M%Khalil%NULL%1,            Ahmed%Arafa%NULL%1,            Zeinab%Mohammed%NULL%1,            El-Nabgha F%Mohammed%NULL%1,            Ebtesam E%Hassan%NULL%1,            Sarah%Abdel Hamid%NULL%1,            Somaya A%Ewis%NULL%1,            Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1255,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1194,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1252,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1281,7 +1371,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1310,7 +1400,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1339,7 +1429,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1368,7 +1458,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1397,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1426,7 +1516,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1455,7 +1545,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1484,7 +1574,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1513,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1542,7 +1632,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1571,7 +1661,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1600,7 +1690,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="287">
   <si>
     <t>Doi</t>
   </si>
@@ -879,6 +879,96 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,            Ashraf A%Ewis%NULL%1,            Eman M%Mahfouz%NULL%1,            Doaa M%Khalil%NULL%1,            Ahmed%Arafa%NULL%1,            Zeinab%Mohammed%NULL%1,            El-Nabgha F%Mohammed%NULL%1,            Ebtesam E%Hassan%NULL%1,            Sarah%Abdel Hamid%NULL%1,            Somaya A%Ewis%NULL%1,            Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,             Sabrina%Donati Zeppa%NULL%2,             Sabrina%Donati Zeppa%NULL%0,             Antonio%Preti%NULL%2,             Antonio%Preti%NULL%0,             Marco%Gervasi%NULL%2,             Marco%Gervasi%NULL%0,             Erica%Gobbi%NULL%2,             Erica%Gobbi%NULL%0,             Fabio%Ferrini%NULL%2,             Fabio%Ferrini%NULL%0,             Marco B. L.%Rocchi%NULL%1,             Carlo%Baldari%NULL%2,             Carlo%Baldari%NULL%0,             Fabrizio%Perroni%NULL%2,             Fabrizio%Perroni%NULL%0,             Giovanni%Piccoli%NULL%2,             Giovanni%Piccoli%NULL%0,             Vilberto%Stocchi%NULL%1,             Piero%Sestili%NULL%1,             Davide%Sisti%NULL%2,             Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,             Dominika%Ochnik%NULL%1,             Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,           March%L%coreGivesNoEmail%1,           Marshall%S.%coreGivesNoEmail%1,           Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,             Cyril%Tarquinio%NULL%1,             Martine%Batt%NULL%1,             Pascale%Tarquinio%NULL%1,             Romain%Lebreuilly%NULL%1,             Christine%Sorsana%NULL%1,             Karine%Legrand%NULL%1,             Hélène%Rousseau%NULL%1,             Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,             Shun-wei%Liang%NULL%1,             Yang%Peng%NULL%1,             Xue-guo%Li%NULL%1,             Jian-bin%Chen%NULL%1,             Si-yao%Tang%NULL%1,             Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,             Benjamin%Becker%NULL%0,             Qian%Yu%NULL%0,             Peter%Willeit%NULL%0,             Can%Jiao%NULL%0,             Liuyue%Huang%NULL%0,             M. Mahhub%Hossain%NULL%0,             Igor%Grabovac%NULL%0,             Albert%Yeung%NULL%0,             Jingyuan%Lin%NULL%0,             Nicola%Veronese%NULL%0,             Jian%Wang%NULL%0,             Xinqi%Zhou%NULL%0,             Scott R.%Doig%NULL%0,             Xiaofeng%Liu%NULL%0,             Andre F.%Carvalho%NULL%0,             Lin%Yang%NULL%0,             Tao%Xiao%NULL%0,             Liye%Zou%NULL%0,             Paolo%Fusar-Poli%NULL%0,             Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,             Foster Kofi%Ayittey%NULL%2,             Foster Kofi%Ayittey%NULL%0,             Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,           Lovibond%P.%coreGivesNoEmail%1,           Lozano%M.%coreGivesNoEmail%1,           Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,           Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,             Annina%Zysset%NULL%2,             Annina%Zysset%NULL%0,             Nadine%Schlatter%NULL%1,             Agnes%von Wyl%NULL%1,             Marion%Huber%NULL%1,             Thomas%Volken%NULL%2,             Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,             Megan Chong Hueh%Zan%NULL%2,             Megan Chong Hueh%Zan%NULL%0,             Min Jung%Cho%NULL%1,             Jenifer I.%Fenton%NULL%2,             Jenifer I.%Fenton%NULL%0,             Pao Ying%Hsiao%NULL%2,             Pao Ying%Hsiao%NULL%0,             Richard%Hsiao%NULL%1,             Laura%Keaver%NULL%1,             Chang-Chi%Lai%NULL%2,             Chang-Chi%Lai%NULL%0,             HeeSoon%Lee%NULL%1,             Mary-Jon%Ludy%NULL%2,             Mary-Jon%Ludy%NULL%0,             Wan%Shen%NULL%1,             Winnie Chee Siew%Swee%NULL%2,             Winnie Chee Siew%Swee%NULL%0,             Jyothi%Thrivikraman%NULL%2,             Jyothi%Thrivikraman%NULL%0,             Kuo-Wei%Tseng%NULL%1,             Wei-Chin%Tseng%NULL%1,             Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,             Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,     Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,             Shijiao%Yan%NULL%0,             Qiao%Zong%NULL%1,             Dan%Anderson-Luxford%NULL%1,             Xingyue%Song%NULL%1,             Zhiyue%Lv%NULL%1,             Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,             Viera%Ivankova%NULL%2,             Viera%Ivankova%NULL%0,             Martin%Rigelsky%NULL%2,             Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,             Ashraf A%Ewis%NULL%1,             Eman M%Mahfouz%NULL%1,             Doaa M%Khalil%NULL%1,             Ahmed%Arafa%NULL%1,             Zeinab%Mohammed%NULL%1,             El-Nabgha F%Mohammed%NULL%1,             Ebtesam E%Hassan%NULL%1,             Sarah%Abdel Hamid%NULL%1,             Somaya A%Ewis%NULL%1,             Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,              Sabrina%Donati Zeppa%NULL%2,              Sabrina%Donati Zeppa%NULL%0,              Antonio%Preti%NULL%2,              Antonio%Preti%NULL%0,              Marco%Gervasi%NULL%2,              Marco%Gervasi%NULL%0,              Erica%Gobbi%NULL%2,              Erica%Gobbi%NULL%0,              Fabio%Ferrini%NULL%2,              Fabio%Ferrini%NULL%0,              Marco B. L.%Rocchi%NULL%1,              Carlo%Baldari%NULL%2,              Carlo%Baldari%NULL%0,              Fabrizio%Perroni%NULL%2,              Fabrizio%Perroni%NULL%0,              Giovanni%Piccoli%NULL%2,              Giovanni%Piccoli%NULL%0,              Vilberto%Stocchi%NULL%1,              Piero%Sestili%NULL%1,              Davide%Sisti%NULL%2,              Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,              Dominika%Ochnik%NULL%1,              Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,            March%L%coreGivesNoEmail%1,            Marshall%S.%coreGivesNoEmail%1,            Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,              Cyril%Tarquinio%NULL%1,              Martine%Batt%NULL%1,              Pascale%Tarquinio%NULL%1,              Romain%Lebreuilly%NULL%1,              Christine%Sorsana%NULL%1,              Karine%Legrand%NULL%1,              Hélène%Rousseau%NULL%1,              Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,              Shun-wei%Liang%NULL%1,              Yang%Peng%NULL%1,              Xue-guo%Li%NULL%1,              Jian-bin%Chen%NULL%1,              Si-yao%Tang%NULL%1,              Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,              Benjamin%Becker%NULL%0,              Qian%Yu%NULL%0,              Peter%Willeit%NULL%0,              Can%Jiao%NULL%0,              Liuyue%Huang%NULL%0,              M. Mahhub%Hossain%NULL%0,              Igor%Grabovac%NULL%0,              Albert%Yeung%NULL%0,              Jingyuan%Lin%NULL%0,              Nicola%Veronese%NULL%0,              Jian%Wang%NULL%0,              Xinqi%Zhou%NULL%0,              Scott R.%Doig%NULL%0,              Xiaofeng%Liu%NULL%0,              Andre F.%Carvalho%NULL%0,              Lin%Yang%NULL%0,              Tao%Xiao%NULL%0,              Liye%Zou%NULL%0,              Paolo%Fusar-Poli%NULL%0,              Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,              Foster Kofi%Ayittey%NULL%2,              Foster Kofi%Ayittey%NULL%0,              Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,            Lovibond%P.%coreGivesNoEmail%1,            Lozano%M.%coreGivesNoEmail%1,            Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,            Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,              Annina%Zysset%NULL%2,              Annina%Zysset%NULL%0,              Nadine%Schlatter%NULL%1,              Agnes%von Wyl%NULL%1,              Marion%Huber%NULL%1,              Thomas%Volken%NULL%2,              Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,              Megan Chong Hueh%Zan%NULL%2,              Megan Chong Hueh%Zan%NULL%0,              Min Jung%Cho%NULL%1,              Jenifer I.%Fenton%NULL%2,              Jenifer I.%Fenton%NULL%0,              Pao Ying%Hsiao%NULL%2,              Pao Ying%Hsiao%NULL%0,              Richard%Hsiao%NULL%1,              Laura%Keaver%NULL%1,              Chang-Chi%Lai%NULL%2,              Chang-Chi%Lai%NULL%0,              HeeSoon%Lee%NULL%1,              Mary-Jon%Ludy%NULL%2,              Mary-Jon%Ludy%NULL%0,              Wan%Shen%NULL%1,              Winnie Chee Siew%Swee%NULL%2,              Winnie Chee Siew%Swee%NULL%0,              Jyothi%Thrivikraman%NULL%2,              Jyothi%Thrivikraman%NULL%0,              Kuo-Wei%Tseng%NULL%1,              Wei-Chin%Tseng%NULL%1,              Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,              Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,      Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,              Shijiao%Yan%NULL%0,              Qiao%Zong%NULL%1,              Dan%Anderson-Luxford%NULL%1,              Xingyue%Song%NULL%1,              Zhiyue%Lv%NULL%1,              Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,              Viera%Ivankova%NULL%2,              Viera%Ivankova%NULL%0,              Martin%Rigelsky%NULL%2,              Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,              Ashraf A%Ewis%NULL%1,              Eman M%Mahfouz%NULL%1,              Doaa M%Khalil%NULL%1,              Ahmed%Arafa%NULL%1,              Zeinab%Mohammed%NULL%1,              El-Nabgha F%Mohammed%NULL%1,              Ebtesam E%Hassan%NULL%1,              Sarah%Abdel Hamid%NULL%1,              Somaya A%Ewis%NULL%1,              Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1284,7 +1374,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1342,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1371,7 +1461,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1400,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1429,7 +1519,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1458,7 +1548,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1487,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1516,7 +1606,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1545,7 +1635,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1574,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1603,7 +1693,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1632,7 +1722,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1661,7 +1751,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1690,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="302">
   <si>
     <t>Doi</t>
   </si>
@@ -969,6 +969,51 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,              Ashraf A%Ewis%NULL%1,              Eman M%Mahfouz%NULL%1,              Doaa M%Khalil%NULL%1,              Ahmed%Arafa%NULL%1,              Zeinab%Mohammed%NULL%1,              El-Nabgha F%Mohammed%NULL%1,              Ebtesam E%Hassan%NULL%1,              Sarah%Abdel Hamid%NULL%1,              Somaya A%Ewis%NULL%1,              Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,               Sabrina%Donati Zeppa%NULL%2,               Sabrina%Donati Zeppa%NULL%0,               Antonio%Preti%NULL%2,               Antonio%Preti%NULL%0,               Marco%Gervasi%NULL%2,               Marco%Gervasi%NULL%0,               Erica%Gobbi%NULL%2,               Erica%Gobbi%NULL%0,               Fabio%Ferrini%NULL%2,               Fabio%Ferrini%NULL%0,               Marco B. L.%Rocchi%NULL%1,               Carlo%Baldari%NULL%2,               Carlo%Baldari%NULL%0,               Fabrizio%Perroni%NULL%2,               Fabrizio%Perroni%NULL%0,               Giovanni%Piccoli%NULL%2,               Giovanni%Piccoli%NULL%0,               Vilberto%Stocchi%NULL%1,               Piero%Sestili%NULL%1,               Davide%Sisti%NULL%2,               Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,               Dominika%Ochnik%NULL%1,               Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,             March%L%coreGivesNoEmail%1,             Marshall%S.%coreGivesNoEmail%1,             Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,               Cyril%Tarquinio%NULL%1,               Martine%Batt%NULL%1,               Pascale%Tarquinio%NULL%1,               Romain%Lebreuilly%NULL%1,               Christine%Sorsana%NULL%1,               Karine%Legrand%NULL%1,               Hélène%Rousseau%NULL%1,               Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,               Shun-wei%Liang%NULL%1,               Yang%Peng%NULL%1,               Xue-guo%Li%NULL%1,               Jian-bin%Chen%NULL%1,               Si-yao%Tang%NULL%1,               Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,               Benjamin%Becker%NULL%0,               Qian%Yu%NULL%0,               Peter%Willeit%NULL%0,               Can%Jiao%NULL%0,               Liuyue%Huang%NULL%0,               M. Mahhub%Hossain%NULL%0,               Igor%Grabovac%NULL%0,               Albert%Yeung%NULL%0,               Jingyuan%Lin%NULL%0,               Nicola%Veronese%NULL%0,               Jian%Wang%NULL%0,               Xinqi%Zhou%NULL%0,               Scott R.%Doig%NULL%0,               Xiaofeng%Liu%NULL%0,               Andre F.%Carvalho%NULL%0,               Lin%Yang%NULL%0,               Tao%Xiao%NULL%0,               Liye%Zou%NULL%0,               Paolo%Fusar-Poli%NULL%0,               Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,               Foster Kofi%Ayittey%NULL%2,               Foster Kofi%Ayittey%NULL%0,               Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,             Lovibond%P.%coreGivesNoEmail%1,             Lozano%M.%coreGivesNoEmail%1,             Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,             Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,               Annina%Zysset%NULL%2,               Annina%Zysset%NULL%0,               Nadine%Schlatter%NULL%1,               Agnes%von Wyl%NULL%1,               Marion%Huber%NULL%1,               Thomas%Volken%NULL%2,               Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,               Megan Chong Hueh%Zan%NULL%2,               Megan Chong Hueh%Zan%NULL%0,               Min Jung%Cho%NULL%1,               Jenifer I.%Fenton%NULL%2,               Jenifer I.%Fenton%NULL%0,               Pao Ying%Hsiao%NULL%2,               Pao Ying%Hsiao%NULL%0,               Richard%Hsiao%NULL%1,               Laura%Keaver%NULL%1,               Chang-Chi%Lai%NULL%2,               Chang-Chi%Lai%NULL%0,               HeeSoon%Lee%NULL%1,               Mary-Jon%Ludy%NULL%2,               Mary-Jon%Ludy%NULL%0,               Wan%Shen%NULL%1,               Winnie Chee Siew%Swee%NULL%2,               Winnie Chee Siew%Swee%NULL%0,               Jyothi%Thrivikraman%NULL%2,               Jyothi%Thrivikraman%NULL%0,               Kuo-Wei%Tseng%NULL%1,               Wei-Chin%Tseng%NULL%1,               Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,               Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,       Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,               Shijiao%Yan%NULL%0,               Qiao%Zong%NULL%1,               Dan%Anderson-Luxford%NULL%1,               Xingyue%Song%NULL%1,               Zhiyue%Lv%NULL%1,               Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,               Viera%Ivankova%NULL%2,               Viera%Ivankova%NULL%0,               Martin%Rigelsky%NULL%2,               Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,               Ashraf A%Ewis%NULL%1,               Eman M%Mahfouz%NULL%1,               Doaa M%Khalil%NULL%1,               Ahmed%Arafa%NULL%1,               Zeinab%Mohammed%NULL%1,               El-Nabgha F%Mohammed%NULL%1,               Ebtesam E%Hassan%NULL%1,               Sarah%Abdel Hamid%NULL%1,               Somaya A%Ewis%NULL%1,               Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1374,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1432,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1461,7 +1506,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1490,7 +1535,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1519,7 +1564,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1548,7 +1593,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1577,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1606,7 +1651,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1635,7 +1680,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1664,7 +1709,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1693,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1722,7 +1767,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1751,7 +1796,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1780,7 +1825,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="317">
   <si>
     <t>Doi</t>
   </si>
@@ -1014,6 +1014,51 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,               Ashraf A%Ewis%NULL%1,               Eman M%Mahfouz%NULL%1,               Doaa M%Khalil%NULL%1,               Ahmed%Arafa%NULL%1,               Zeinab%Mohammed%NULL%1,               El-Nabgha F%Mohammed%NULL%1,               Ebtesam E%Hassan%NULL%1,               Sarah%Abdel Hamid%NULL%1,               Somaya A%Ewis%NULL%1,               Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                Sabrina%Donati Zeppa%NULL%2,                Sabrina%Donati Zeppa%NULL%0,                Antonio%Preti%NULL%2,                Antonio%Preti%NULL%0,                Marco%Gervasi%NULL%2,                Marco%Gervasi%NULL%0,                Erica%Gobbi%NULL%2,                Erica%Gobbi%NULL%0,                Fabio%Ferrini%NULL%2,                Fabio%Ferrini%NULL%0,                Marco B. L.%Rocchi%NULL%1,                Carlo%Baldari%NULL%2,                Carlo%Baldari%NULL%0,                Fabrizio%Perroni%NULL%2,                Fabrizio%Perroni%NULL%0,                Giovanni%Piccoli%NULL%2,                Giovanni%Piccoli%NULL%0,                Vilberto%Stocchi%NULL%1,                Piero%Sestili%NULL%1,                Davide%Sisti%NULL%2,                Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                Dominika%Ochnik%NULL%1,                Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,              March%L%coreGivesNoEmail%1,              Marshall%S.%coreGivesNoEmail%1,              Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                Cyril%Tarquinio%NULL%1,                Martine%Batt%NULL%1,                Pascale%Tarquinio%NULL%1,                Romain%Lebreuilly%NULL%1,                Christine%Sorsana%NULL%1,                Karine%Legrand%NULL%1,                Hélène%Rousseau%NULL%1,                Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                Shun-wei%Liang%NULL%1,                Yang%Peng%NULL%1,                Xue-guo%Li%NULL%1,                Jian-bin%Chen%NULL%1,                Si-yao%Tang%NULL%1,                Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                Benjamin%Becker%NULL%0,                Qian%Yu%NULL%0,                Peter%Willeit%NULL%0,                Can%Jiao%NULL%0,                Liuyue%Huang%NULL%0,                M. Mahhub%Hossain%NULL%0,                Igor%Grabovac%NULL%0,                Albert%Yeung%NULL%0,                Jingyuan%Lin%NULL%0,                Nicola%Veronese%NULL%0,                Jian%Wang%NULL%0,                Xinqi%Zhou%NULL%0,                Scott R.%Doig%NULL%0,                Xiaofeng%Liu%NULL%0,                Andre F.%Carvalho%NULL%0,                Lin%Yang%NULL%0,                Tao%Xiao%NULL%0,                Liye%Zou%NULL%0,                Paolo%Fusar-Poli%NULL%0,                Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                Foster Kofi%Ayittey%NULL%2,                Foster Kofi%Ayittey%NULL%0,                Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,              Lovibond%P.%coreGivesNoEmail%1,              Lozano%M.%coreGivesNoEmail%1,              Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,              Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                Annina%Zysset%NULL%2,                Annina%Zysset%NULL%0,                Nadine%Schlatter%NULL%1,                Agnes%von Wyl%NULL%1,                Marion%Huber%NULL%1,                Thomas%Volken%NULL%2,                Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                Megan Chong Hueh%Zan%NULL%2,                Megan Chong Hueh%Zan%NULL%0,                Min Jung%Cho%NULL%1,                Jenifer I.%Fenton%NULL%2,                Jenifer I.%Fenton%NULL%0,                Pao Ying%Hsiao%NULL%2,                Pao Ying%Hsiao%NULL%0,                Richard%Hsiao%NULL%1,                Laura%Keaver%NULL%1,                Chang-Chi%Lai%NULL%2,                Chang-Chi%Lai%NULL%0,                HeeSoon%Lee%NULL%1,                Mary-Jon%Ludy%NULL%2,                Mary-Jon%Ludy%NULL%0,                Wan%Shen%NULL%1,                Winnie Chee Siew%Swee%NULL%2,                Winnie Chee Siew%Swee%NULL%0,                Jyothi%Thrivikraman%NULL%2,                Jyothi%Thrivikraman%NULL%0,                Kuo-Wei%Tseng%NULL%1,                Wei-Chin%Tseng%NULL%1,                Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,        Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                Shijiao%Yan%NULL%0,                Qiao%Zong%NULL%1,                Dan%Anderson-Luxford%NULL%1,                Xingyue%Song%NULL%1,                Zhiyue%Lv%NULL%1,                Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                Viera%Ivankova%NULL%2,                Viera%Ivankova%NULL%0,                Martin%Rigelsky%NULL%2,                Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                Ashraf A%Ewis%NULL%1,                Eman M%Mahfouz%NULL%1,                Doaa M%Khalil%NULL%1,                Ahmed%Arafa%NULL%1,                Zeinab%Mohammed%NULL%1,                El-Nabgha F%Mohammed%NULL%1,                Ebtesam E%Hassan%NULL%1,                Sarah%Abdel Hamid%NULL%1,                Somaya A%Ewis%NULL%1,                Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1435,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1419,7 +1464,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1477,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1506,7 +1551,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1535,7 +1580,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1564,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1593,7 +1638,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1622,7 +1667,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1651,7 +1696,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1680,7 +1725,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1709,7 +1754,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1738,7 +1783,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1767,7 +1812,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1796,7 +1841,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1825,7 +1870,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="347">
   <si>
     <t>Doi</t>
   </si>
@@ -1059,6 +1059,96 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                Ashraf A%Ewis%NULL%1,                Eman M%Mahfouz%NULL%1,                Doaa M%Khalil%NULL%1,                Ahmed%Arafa%NULL%1,                Zeinab%Mohammed%NULL%1,                El-Nabgha F%Mohammed%NULL%1,                Ebtesam E%Hassan%NULL%1,                Sarah%Abdel Hamid%NULL%1,                Somaya A%Ewis%NULL%1,                Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                 Sabrina%Donati Zeppa%NULL%2,                 Sabrina%Donati Zeppa%NULL%0,                 Antonio%Preti%NULL%2,                 Antonio%Preti%NULL%0,                 Marco%Gervasi%NULL%2,                 Marco%Gervasi%NULL%0,                 Erica%Gobbi%NULL%2,                 Erica%Gobbi%NULL%0,                 Fabio%Ferrini%NULL%2,                 Fabio%Ferrini%NULL%0,                 Marco B. L.%Rocchi%NULL%1,                 Carlo%Baldari%NULL%2,                 Carlo%Baldari%NULL%0,                 Fabrizio%Perroni%NULL%2,                 Fabrizio%Perroni%NULL%0,                 Giovanni%Piccoli%NULL%2,                 Giovanni%Piccoli%NULL%0,                 Vilberto%Stocchi%NULL%1,                 Piero%Sestili%NULL%1,                 Davide%Sisti%NULL%2,                 Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                 Dominika%Ochnik%NULL%1,                 Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,               March%L%coreGivesNoEmail%1,               Marshall%S.%coreGivesNoEmail%1,               Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                 Cyril%Tarquinio%NULL%1,                 Martine%Batt%NULL%1,                 Pascale%Tarquinio%NULL%1,                 Romain%Lebreuilly%NULL%1,                 Christine%Sorsana%NULL%1,                 Karine%Legrand%NULL%1,                 Hélène%Rousseau%NULL%1,                 Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                 Shun-wei%Liang%NULL%1,                 Yang%Peng%NULL%1,                 Xue-guo%Li%NULL%1,                 Jian-bin%Chen%NULL%1,                 Si-yao%Tang%NULL%1,                 Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                 Benjamin%Becker%NULL%0,                 Qian%Yu%NULL%0,                 Peter%Willeit%NULL%0,                 Can%Jiao%NULL%0,                 Liuyue%Huang%NULL%0,                 M. Mahhub%Hossain%NULL%0,                 Igor%Grabovac%NULL%0,                 Albert%Yeung%NULL%0,                 Jingyuan%Lin%NULL%0,                 Nicola%Veronese%NULL%0,                 Jian%Wang%NULL%0,                 Xinqi%Zhou%NULL%0,                 Scott R.%Doig%NULL%0,                 Xiaofeng%Liu%NULL%0,                 Andre F.%Carvalho%NULL%0,                 Lin%Yang%NULL%0,                 Tao%Xiao%NULL%0,                 Liye%Zou%NULL%0,                 Paolo%Fusar-Poli%NULL%0,                 Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                 Foster Kofi%Ayittey%NULL%2,                 Foster Kofi%Ayittey%NULL%0,                 Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,               Lovibond%P.%coreGivesNoEmail%1,               Lozano%M.%coreGivesNoEmail%1,               Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,               Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                 Annina%Zysset%NULL%2,                 Annina%Zysset%NULL%0,                 Nadine%Schlatter%NULL%1,                 Agnes%von Wyl%NULL%1,                 Marion%Huber%NULL%1,                 Thomas%Volken%NULL%2,                 Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                 Megan Chong Hueh%Zan%NULL%2,                 Megan Chong Hueh%Zan%NULL%0,                 Min Jung%Cho%NULL%1,                 Jenifer I.%Fenton%NULL%2,                 Jenifer I.%Fenton%NULL%0,                 Pao Ying%Hsiao%NULL%2,                 Pao Ying%Hsiao%NULL%0,                 Richard%Hsiao%NULL%1,                 Laura%Keaver%NULL%1,                 Chang-Chi%Lai%NULL%2,                 Chang-Chi%Lai%NULL%0,                 HeeSoon%Lee%NULL%1,                 Mary-Jon%Ludy%NULL%2,                 Mary-Jon%Ludy%NULL%0,                 Wan%Shen%NULL%1,                 Winnie Chee Siew%Swee%NULL%2,                 Winnie Chee Siew%Swee%NULL%0,                 Jyothi%Thrivikraman%NULL%2,                 Jyothi%Thrivikraman%NULL%0,                 Kuo-Wei%Tseng%NULL%1,                 Wei-Chin%Tseng%NULL%1,                 Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                 Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,         Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                 Shijiao%Yan%NULL%0,                 Qiao%Zong%NULL%1,                 Dan%Anderson-Luxford%NULL%1,                 Xingyue%Song%NULL%1,                 Zhiyue%Lv%NULL%1,                 Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                 Viera%Ivankova%NULL%2,                 Viera%Ivankova%NULL%0,                 Martin%Rigelsky%NULL%2,                 Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                 Ashraf A%Ewis%NULL%1,                 Eman M%Mahfouz%NULL%1,                 Doaa M%Khalil%NULL%1,                 Ahmed%Arafa%NULL%1,                 Zeinab%Mohammed%NULL%1,                 El-Nabgha F%Mohammed%NULL%1,                 Ebtesam E%Hassan%NULL%1,                 Sarah%Abdel Hamid%NULL%1,                 Somaya A%Ewis%NULL%1,                 Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                  Sabrina%Donati Zeppa%NULL%2,                  Sabrina%Donati Zeppa%NULL%0,                  Antonio%Preti%NULL%2,                  Antonio%Preti%NULL%0,                  Marco%Gervasi%NULL%2,                  Marco%Gervasi%NULL%0,                  Erica%Gobbi%NULL%2,                  Erica%Gobbi%NULL%0,                  Fabio%Ferrini%NULL%2,                  Fabio%Ferrini%NULL%0,                  Marco B. L.%Rocchi%NULL%1,                  Carlo%Baldari%NULL%2,                  Carlo%Baldari%NULL%0,                  Fabrizio%Perroni%NULL%2,                  Fabrizio%Perroni%NULL%0,                  Giovanni%Piccoli%NULL%2,                  Giovanni%Piccoli%NULL%0,                  Vilberto%Stocchi%NULL%1,                  Piero%Sestili%NULL%1,                  Davide%Sisti%NULL%2,                  Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                  Dominika%Ochnik%NULL%1,                  Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                March%L%coreGivesNoEmail%1,                Marshall%S.%coreGivesNoEmail%1,                Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                  Cyril%Tarquinio%NULL%1,                  Martine%Batt%NULL%1,                  Pascale%Tarquinio%NULL%1,                  Romain%Lebreuilly%NULL%1,                  Christine%Sorsana%NULL%1,                  Karine%Legrand%NULL%1,                  Hélène%Rousseau%NULL%1,                  Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                  Shun-wei%Liang%NULL%1,                  Yang%Peng%NULL%1,                  Xue-guo%Li%NULL%1,                  Jian-bin%Chen%NULL%1,                  Si-yao%Tang%NULL%1,                  Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                  Benjamin%Becker%NULL%0,                  Qian%Yu%NULL%0,                  Peter%Willeit%NULL%0,                  Can%Jiao%NULL%0,                  Liuyue%Huang%NULL%0,                  M. Mahhub%Hossain%NULL%0,                  Igor%Grabovac%NULL%0,                  Albert%Yeung%NULL%0,                  Jingyuan%Lin%NULL%0,                  Nicola%Veronese%NULL%0,                  Jian%Wang%NULL%0,                  Xinqi%Zhou%NULL%0,                  Scott R.%Doig%NULL%0,                  Xiaofeng%Liu%NULL%0,                  Andre F.%Carvalho%NULL%0,                  Lin%Yang%NULL%0,                  Tao%Xiao%NULL%0,                  Liye%Zou%NULL%0,                  Paolo%Fusar-Poli%NULL%0,                  Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                  Foster Kofi%Ayittey%NULL%2,                  Foster Kofi%Ayittey%NULL%0,                  Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                Lovibond%P.%coreGivesNoEmail%1,                Lozano%M.%coreGivesNoEmail%1,                Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                  Annina%Zysset%NULL%2,                  Annina%Zysset%NULL%0,                  Nadine%Schlatter%NULL%1,                  Agnes%von Wyl%NULL%1,                  Marion%Huber%NULL%1,                  Thomas%Volken%NULL%2,                  Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                  Megan Chong Hueh%Zan%NULL%2,                  Megan Chong Hueh%Zan%NULL%0,                  Min Jung%Cho%NULL%1,                  Jenifer I.%Fenton%NULL%2,                  Jenifer I.%Fenton%NULL%0,                  Pao Ying%Hsiao%NULL%2,                  Pao Ying%Hsiao%NULL%0,                  Richard%Hsiao%NULL%1,                  Laura%Keaver%NULL%1,                  Chang-Chi%Lai%NULL%2,                  Chang-Chi%Lai%NULL%0,                  HeeSoon%Lee%NULL%1,                  Mary-Jon%Ludy%NULL%2,                  Mary-Jon%Ludy%NULL%0,                  Wan%Shen%NULL%1,                  Winnie Chee Siew%Swee%NULL%2,                  Winnie Chee Siew%Swee%NULL%0,                  Jyothi%Thrivikraman%NULL%2,                  Jyothi%Thrivikraman%NULL%0,                  Kuo-Wei%Tseng%NULL%1,                  Wei-Chin%Tseng%NULL%1,                  Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                  Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,          Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                  Shijiao%Yan%NULL%0,                  Qiao%Zong%NULL%1,                  Dan%Anderson-Luxford%NULL%1,                  Xingyue%Song%NULL%1,                  Zhiyue%Lv%NULL%1,                  Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                  Viera%Ivankova%NULL%2,                  Viera%Ivankova%NULL%0,                  Martin%Rigelsky%NULL%2,                  Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                  Ashraf A%Ewis%NULL%1,                  Eman M%Mahfouz%NULL%1,                  Doaa M%Khalil%NULL%1,                  Ahmed%Arafa%NULL%1,                  Zeinab%Mohammed%NULL%1,                  El-Nabgha F%Mohammed%NULL%1,                  Ebtesam E%Hassan%NULL%1,                  Sarah%Abdel Hamid%NULL%1,                  Somaya A%Ewis%NULL%1,                  Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1464,7 +1554,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1522,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1551,7 +1641,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1580,7 +1670,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1609,7 +1699,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1638,7 +1728,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1667,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1696,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1725,7 +1815,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1754,7 +1844,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1783,7 +1873,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1812,7 +1902,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1841,7 +1931,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1870,7 +1960,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="362">
   <si>
     <t>Doi</t>
   </si>
@@ -1149,6 +1149,51 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                  Ashraf A%Ewis%NULL%1,                  Eman M%Mahfouz%NULL%1,                  Doaa M%Khalil%NULL%1,                  Ahmed%Arafa%NULL%1,                  Zeinab%Mohammed%NULL%1,                  El-Nabgha F%Mohammed%NULL%1,                  Ebtesam E%Hassan%NULL%1,                  Sarah%Abdel Hamid%NULL%1,                  Somaya A%Ewis%NULL%1,                  Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                   Sabrina%Donati Zeppa%NULL%2,                   Sabrina%Donati Zeppa%NULL%0,                   Antonio%Preti%NULL%2,                   Antonio%Preti%NULL%0,                   Marco%Gervasi%NULL%2,                   Marco%Gervasi%NULL%0,                   Erica%Gobbi%NULL%2,                   Erica%Gobbi%NULL%0,                   Fabio%Ferrini%NULL%2,                   Fabio%Ferrini%NULL%0,                   Marco B. L.%Rocchi%NULL%1,                   Carlo%Baldari%NULL%2,                   Carlo%Baldari%NULL%0,                   Fabrizio%Perroni%NULL%2,                   Fabrizio%Perroni%NULL%0,                   Giovanni%Piccoli%NULL%2,                   Giovanni%Piccoli%NULL%0,                   Vilberto%Stocchi%NULL%1,                   Piero%Sestili%NULL%1,                   Davide%Sisti%NULL%2,                   Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                   Dominika%Ochnik%NULL%1,                   Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                 March%L%coreGivesNoEmail%1,                 Marshall%S.%coreGivesNoEmail%1,                 Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                   Cyril%Tarquinio%NULL%1,                   Martine%Batt%NULL%1,                   Pascale%Tarquinio%NULL%1,                   Romain%Lebreuilly%NULL%1,                   Christine%Sorsana%NULL%1,                   Karine%Legrand%NULL%1,                   Hélène%Rousseau%NULL%1,                   Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                   Shun-wei%Liang%NULL%1,                   Yang%Peng%NULL%1,                   Xue-guo%Li%NULL%1,                   Jian-bin%Chen%NULL%1,                   Si-yao%Tang%NULL%1,                   Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                   Benjamin%Becker%NULL%0,                   Qian%Yu%NULL%0,                   Peter%Willeit%NULL%0,                   Can%Jiao%NULL%0,                   Liuyue%Huang%NULL%0,                   M. Mahhub%Hossain%NULL%0,                   Igor%Grabovac%NULL%0,                   Albert%Yeung%NULL%0,                   Jingyuan%Lin%NULL%0,                   Nicola%Veronese%NULL%0,                   Jian%Wang%NULL%0,                   Xinqi%Zhou%NULL%0,                   Scott R.%Doig%NULL%0,                   Xiaofeng%Liu%NULL%0,                   Andre F.%Carvalho%NULL%0,                   Lin%Yang%NULL%0,                   Tao%Xiao%NULL%0,                   Liye%Zou%NULL%0,                   Paolo%Fusar-Poli%NULL%0,                   Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                   Foster Kofi%Ayittey%NULL%2,                   Foster Kofi%Ayittey%NULL%0,                   Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                 Lovibond%P.%coreGivesNoEmail%1,                 Lozano%M.%coreGivesNoEmail%1,                 Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                 Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                   Annina%Zysset%NULL%2,                   Annina%Zysset%NULL%0,                   Nadine%Schlatter%NULL%1,                   Agnes%von Wyl%NULL%1,                   Marion%Huber%NULL%1,                   Thomas%Volken%NULL%2,                   Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                   Megan Chong Hueh%Zan%NULL%2,                   Megan Chong Hueh%Zan%NULL%0,                   Min Jung%Cho%NULL%1,                   Jenifer I.%Fenton%NULL%2,                   Jenifer I.%Fenton%NULL%0,                   Pao Ying%Hsiao%NULL%2,                   Pao Ying%Hsiao%NULL%0,                   Richard%Hsiao%NULL%1,                   Laura%Keaver%NULL%1,                   Chang-Chi%Lai%NULL%2,                   Chang-Chi%Lai%NULL%0,                   HeeSoon%Lee%NULL%1,                   Mary-Jon%Ludy%NULL%2,                   Mary-Jon%Ludy%NULL%0,                   Wan%Shen%NULL%1,                   Winnie Chee Siew%Swee%NULL%2,                   Winnie Chee Siew%Swee%NULL%0,                   Jyothi%Thrivikraman%NULL%2,                   Jyothi%Thrivikraman%NULL%0,                   Kuo-Wei%Tseng%NULL%1,                   Wei-Chin%Tseng%NULL%1,                   Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                   Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,           Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                   Shijiao%Yan%NULL%0,                   Qiao%Zong%NULL%1,                   Dan%Anderson-Luxford%NULL%1,                   Xingyue%Song%NULL%1,                   Zhiyue%Lv%NULL%1,                   Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                   Viera%Ivankova%NULL%2,                   Viera%Ivankova%NULL%0,                   Martin%Rigelsky%NULL%2,                   Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                   Ashraf A%Ewis%NULL%1,                   Eman M%Mahfouz%NULL%1,                   Doaa M%Khalil%NULL%1,                   Ahmed%Arafa%NULL%1,                   Zeinab%Mohammed%NULL%1,                   El-Nabgha F%Mohammed%NULL%1,                   Ebtesam E%Hassan%NULL%1,                   Sarah%Abdel Hamid%NULL%1,                   Somaya A%Ewis%NULL%1,                   Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1570,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1554,7 +1599,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1612,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1641,7 +1686,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1670,7 +1715,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1699,7 +1744,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1728,7 +1773,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1757,7 +1802,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1786,7 +1831,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1815,7 +1860,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1844,7 +1889,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1873,7 +1918,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1902,7 +1947,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1931,7 +1976,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1960,7 +2005,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="380">
   <si>
     <t>Doi</t>
   </si>
@@ -1194,6 +1194,60 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                   Ashraf A%Ewis%NULL%1,                   Eman M%Mahfouz%NULL%1,                   Doaa M%Khalil%NULL%1,                   Ahmed%Arafa%NULL%1,                   Zeinab%Mohammed%NULL%1,                   El-Nabgha F%Mohammed%NULL%1,                   Ebtesam E%Hassan%NULL%1,                   Sarah%Abdel Hamid%NULL%1,                   Somaya A%Ewis%NULL%1,                   Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                    Sabrina%Donati Zeppa%NULL%2,                    Sabrina%Donati Zeppa%NULL%0,                    Antonio%Preti%NULL%2,                    Antonio%Preti%NULL%0,                    Marco%Gervasi%NULL%2,                    Marco%Gervasi%NULL%0,                    Erica%Gobbi%NULL%2,                    Erica%Gobbi%NULL%0,                    Fabio%Ferrini%NULL%2,                    Fabio%Ferrini%NULL%0,                    Marco B. L.%Rocchi%NULL%1,                    Carlo%Baldari%NULL%2,                    Carlo%Baldari%NULL%0,                    Fabrizio%Perroni%NULL%2,                    Fabrizio%Perroni%NULL%0,                    Giovanni%Piccoli%NULL%2,                    Giovanni%Piccoli%NULL%0,                    Vilberto%Stocchi%NULL%1,                    Piero%Sestili%NULL%1,                    Davide%Sisti%NULL%2,                    Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                    Dominika%Ochnik%NULL%1,                    Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                  March%L%coreGivesNoEmail%1,                  Marshall%S.%coreGivesNoEmail%1,                  Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                    Cyril%Tarquinio%NULL%1,                    Martine%Batt%NULL%1,                    Pascale%Tarquinio%NULL%1,                    Romain%Lebreuilly%NULL%1,                    Christine%Sorsana%NULL%1,                    Karine%Legrand%NULL%1,                    Hélène%Rousseau%NULL%1,                    Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                    Shun-wei%Liang%NULL%1,                    Yang%Peng%NULL%1,                    Xue-guo%Li%NULL%1,                    Jian-bin%Chen%NULL%1,                    Si-yao%Tang%NULL%1,                    Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                    Benjamin%Becker%NULL%0,                    Qian%Yu%NULL%0,                    Peter%Willeit%NULL%0,                    Can%Jiao%NULL%0,                    Liuyue%Huang%NULL%0,                    M. Mahhub%Hossain%NULL%0,                    Igor%Grabovac%NULL%0,                    Albert%Yeung%NULL%0,                    Jingyuan%Lin%NULL%0,                    Nicola%Veronese%NULL%0,                    Jian%Wang%NULL%0,                    Xinqi%Zhou%NULL%0,                    Scott R.%Doig%NULL%0,                    Xiaofeng%Liu%NULL%0,                    Andre F.%Carvalho%NULL%0,                    Lin%Yang%NULL%0,                    Tao%Xiao%NULL%0,                    Liye%Zou%NULL%0,                    Paolo%Fusar-Poli%NULL%0,                    Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                    Foster Kofi%Ayittey%NULL%2,                    Foster Kofi%Ayittey%NULL%0,                    Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                  Lovibond%P.%coreGivesNoEmail%1,                  Lozano%M.%coreGivesNoEmail%1,                  Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                  Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                    Annina%Zysset%NULL%2,                    Annina%Zysset%NULL%0,                    Nadine%Schlatter%NULL%1,                    Agnes%von Wyl%NULL%1,                    Marion%Huber%NULL%1,                    Thomas%Volken%NULL%2,                    Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                    Megan Chong Hueh%Zan%NULL%2,                    Megan Chong Hueh%Zan%NULL%0,                    Min Jung%Cho%NULL%1,                    Jenifer I.%Fenton%NULL%2,                    Jenifer I.%Fenton%NULL%0,                    Pao Ying%Hsiao%NULL%2,                    Pao Ying%Hsiao%NULL%0,                    Richard%Hsiao%NULL%1,                    Laura%Keaver%NULL%1,                    Chang-Chi%Lai%NULL%2,                    Chang-Chi%Lai%NULL%0,                    HeeSoon%Lee%NULL%1,                    Mary-Jon%Ludy%NULL%2,                    Mary-Jon%Ludy%NULL%0,                    Wan%Shen%NULL%1,                    Winnie Chee Siew%Swee%NULL%2,                    Winnie Chee Siew%Swee%NULL%0,                    Jyothi%Thrivikraman%NULL%2,                    Jyothi%Thrivikraman%NULL%0,                    Kuo-Wei%Tseng%NULL%1,                    Wei-Chin%Tseng%NULL%1,                    Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                    Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,            Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                    Shijiao%Yan%NULL%0,                    Qiao%Zong%NULL%1,                    Dan%Anderson-Luxford%NULL%1,                    Xingyue%Song%NULL%1,                    Zhiyue%Lv%NULL%1,                    Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                    Viera%Ivankova%NULL%2,                    Viera%Ivankova%NULL%0,                    Martin%Rigelsky%NULL%2,                    Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                    Ashraf A%Ewis%NULL%1,                    Eman M%Mahfouz%NULL%1,                    Doaa M%Khalil%NULL%1,                    Ahmed%Arafa%NULL%1,                    Zeinab%Mohammed%NULL%1,                    El-Nabgha F%Mohammed%NULL%1,                    Ebtesam E%Hassan%NULL%1,                    Sarah%Abdel Hamid%NULL%1,                    Somaya A%Ewis%NULL%1,                    Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1624,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1582,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3">
@@ -1599,7 +1653,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1611,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
@@ -1640,7 +1694,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1669,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
@@ -1686,7 +1740,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1698,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
@@ -1715,7 +1769,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1727,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8">
@@ -1744,7 +1798,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1756,7 +1810,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
@@ -1773,7 +1827,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1785,7 +1839,7 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +1856,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1814,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11">
@@ -1831,7 +1885,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1843,7 +1897,7 @@
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1914,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1872,7 +1926,7 @@
         <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
@@ -1889,7 +1943,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1901,7 +1955,7 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
@@ -1918,7 +1972,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1930,7 +1984,7 @@
         <v>208</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15">
@@ -1947,7 +2001,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1959,7 +2013,7 @@
         <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16">
@@ -1976,7 +2030,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1988,7 +2042,7 @@
         <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2059,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -2017,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="395">
   <si>
     <t>Doi</t>
   </si>
@@ -1248,6 +1248,51 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                    Ashraf A%Ewis%NULL%1,                    Eman M%Mahfouz%NULL%1,                    Doaa M%Khalil%NULL%1,                    Ahmed%Arafa%NULL%1,                    Zeinab%Mohammed%NULL%1,                    El-Nabgha F%Mohammed%NULL%1,                    Ebtesam E%Hassan%NULL%1,                    Sarah%Abdel Hamid%NULL%1,                    Somaya A%Ewis%NULL%1,                    Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                     Sabrina%Donati Zeppa%NULL%2,                     Sabrina%Donati Zeppa%NULL%0,                     Antonio%Preti%NULL%2,                     Antonio%Preti%NULL%0,                     Marco%Gervasi%NULL%2,                     Marco%Gervasi%NULL%0,                     Erica%Gobbi%NULL%2,                     Erica%Gobbi%NULL%0,                     Fabio%Ferrini%NULL%2,                     Fabio%Ferrini%NULL%0,                     Marco B. L.%Rocchi%NULL%1,                     Carlo%Baldari%NULL%2,                     Carlo%Baldari%NULL%0,                     Fabrizio%Perroni%NULL%2,                     Fabrizio%Perroni%NULL%0,                     Giovanni%Piccoli%NULL%2,                     Giovanni%Piccoli%NULL%0,                     Vilberto%Stocchi%NULL%1,                     Piero%Sestili%NULL%1,                     Davide%Sisti%NULL%2,                     Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                     Dominika%Ochnik%NULL%1,                     Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                   March%L%coreGivesNoEmail%1,                   Marshall%S.%coreGivesNoEmail%1,                   Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                     Cyril%Tarquinio%NULL%1,                     Martine%Batt%NULL%1,                     Pascale%Tarquinio%NULL%1,                     Romain%Lebreuilly%NULL%1,                     Christine%Sorsana%NULL%1,                     Karine%Legrand%NULL%1,                     Hélène%Rousseau%NULL%1,                     Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                     Shun-wei%Liang%NULL%1,                     Yang%Peng%NULL%1,                     Xue-guo%Li%NULL%1,                     Jian-bin%Chen%NULL%1,                     Si-yao%Tang%NULL%1,                     Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                     Benjamin%Becker%NULL%0,                     Qian%Yu%NULL%0,                     Peter%Willeit%NULL%0,                     Can%Jiao%NULL%0,                     Liuyue%Huang%NULL%0,                     M. Mahhub%Hossain%NULL%0,                     Igor%Grabovac%NULL%0,                     Albert%Yeung%NULL%0,                     Jingyuan%Lin%NULL%0,                     Nicola%Veronese%NULL%0,                     Jian%Wang%NULL%0,                     Xinqi%Zhou%NULL%0,                     Scott R.%Doig%NULL%0,                     Xiaofeng%Liu%NULL%0,                     Andre F.%Carvalho%NULL%0,                     Lin%Yang%NULL%0,                     Tao%Xiao%NULL%0,                     Liye%Zou%NULL%0,                     Paolo%Fusar-Poli%NULL%0,                     Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                     Foster Kofi%Ayittey%NULL%2,                     Foster Kofi%Ayittey%NULL%0,                     Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                   Lovibond%P.%coreGivesNoEmail%1,                   Lozano%M.%coreGivesNoEmail%1,                   Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                   Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                     Annina%Zysset%NULL%2,                     Annina%Zysset%NULL%0,                     Nadine%Schlatter%NULL%1,                     Agnes%von Wyl%NULL%1,                     Marion%Huber%NULL%1,                     Thomas%Volken%NULL%2,                     Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                     Megan Chong Hueh%Zan%NULL%2,                     Megan Chong Hueh%Zan%NULL%0,                     Min Jung%Cho%NULL%1,                     Jenifer I.%Fenton%NULL%2,                     Jenifer I.%Fenton%NULL%0,                     Pao Ying%Hsiao%NULL%2,                     Pao Ying%Hsiao%NULL%0,                     Richard%Hsiao%NULL%1,                     Laura%Keaver%NULL%1,                     Chang-Chi%Lai%NULL%2,                     Chang-Chi%Lai%NULL%0,                     HeeSoon%Lee%NULL%1,                     Mary-Jon%Ludy%NULL%2,                     Mary-Jon%Ludy%NULL%0,                     Wan%Shen%NULL%1,                     Winnie Chee Siew%Swee%NULL%2,                     Winnie Chee Siew%Swee%NULL%0,                     Jyothi%Thrivikraman%NULL%2,                     Jyothi%Thrivikraman%NULL%0,                     Kuo-Wei%Tseng%NULL%1,                     Wei-Chin%Tseng%NULL%1,                     Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                     Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%1,             Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                     Shijiao%Yan%NULL%0,                     Qiao%Zong%NULL%1,                     Dan%Anderson-Luxford%NULL%1,                     Xingyue%Song%NULL%1,                     Zhiyue%Lv%NULL%1,                     Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                     Viera%Ivankova%NULL%2,                     Viera%Ivankova%NULL%0,                     Martin%Rigelsky%NULL%2,                     Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                     Ashraf A%Ewis%NULL%1,                     Eman M%Mahfouz%NULL%1,                     Doaa M%Khalil%NULL%1,                     Ahmed%Arafa%NULL%1,                     Zeinab%Mohammed%NULL%1,                     El-Nabgha F%Mohammed%NULL%1,                     Ebtesam E%Hassan%NULL%1,                     Sarah%Abdel Hamid%NULL%1,                     Somaya A%Ewis%NULL%1,                     Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1669,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1653,7 +1698,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1711,7 +1756,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1740,7 +1785,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1769,7 +1814,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1798,7 +1843,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1827,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1856,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1885,7 +1930,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1914,7 +1959,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1943,7 +1988,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1972,7 +2017,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2001,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -2030,7 +2075,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2059,7 +2104,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="469">
   <si>
     <t>Doi</t>
   </si>
@@ -1293,6 +1293,228 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                     Ashraf A%Ewis%NULL%1,                     Eman M%Mahfouz%NULL%1,                     Doaa M%Khalil%NULL%1,                     Ahmed%Arafa%NULL%1,                     Zeinab%Mohammed%NULL%1,                     El-Nabgha F%Mohammed%NULL%1,                     Ebtesam E%Hassan%NULL%1,                     Sarah%Abdel Hamid%NULL%1,                     Somaya A%Ewis%NULL%1,                     Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                      Sabrina%Donati Zeppa%NULL%2,                      Sabrina%Donati Zeppa%NULL%0,                      Antonio%Preti%NULL%2,                      Antonio%Preti%NULL%0,                      Marco%Gervasi%NULL%2,                      Marco%Gervasi%NULL%0,                      Erica%Gobbi%NULL%2,                      Erica%Gobbi%NULL%0,                      Fabio%Ferrini%NULL%2,                      Fabio%Ferrini%NULL%0,                      Marco B. L.%Rocchi%NULL%1,                      Carlo%Baldari%NULL%2,                      Carlo%Baldari%NULL%0,                      Fabrizio%Perroni%NULL%2,                      Fabrizio%Perroni%NULL%0,                      Giovanni%Piccoli%NULL%2,                      Giovanni%Piccoli%NULL%0,                      Vilberto%Stocchi%NULL%1,                      Piero%Sestili%NULL%1,                      Davide%Sisti%NULL%2,                      Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                      Dominika%Ochnik%NULL%1,                      Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                    March%L%coreGivesNoEmail%1,                    Marshall%S.%coreGivesNoEmail%1,                    Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                      Cyril%Tarquinio%NULL%1,                      Martine%Batt%NULL%1,                      Pascale%Tarquinio%NULL%1,                      Romain%Lebreuilly%NULL%1,                      Christine%Sorsana%NULL%1,                      Karine%Legrand%NULL%1,                      Hélène%Rousseau%NULL%1,                      Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                      Shun-wei%Liang%NULL%1,                      Yang%Peng%NULL%1,                      Xue-guo%Li%NULL%1,                      Jian-bin%Chen%NULL%1,                      Si-yao%Tang%NULL%1,                      Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                      Benjamin%Becker%NULL%0,                      Qian%Yu%NULL%0,                      Peter%Willeit%NULL%0,                      Can%Jiao%NULL%0,                      Liuyue%Huang%NULL%0,                      M. Mahhub%Hossain%NULL%0,                      Igor%Grabovac%NULL%0,                      Albert%Yeung%NULL%0,                      Jingyuan%Lin%NULL%0,                      Nicola%Veronese%NULL%0,                      Jian%Wang%NULL%0,                      Xinqi%Zhou%NULL%0,                      Scott R.%Doig%NULL%0,                      Xiaofeng%Liu%NULL%0,                      Andre F.%Carvalho%NULL%0,                      Lin%Yang%NULL%0,                      Tao%Xiao%NULL%0,                      Liye%Zou%NULL%0,                      Paolo%Fusar-Poli%NULL%0,                      Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                      Foster Kofi%Ayittey%NULL%2,                      Foster Kofi%Ayittey%NULL%0,                      Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                    Lovibond%P.%coreGivesNoEmail%1,                    Lozano%M.%coreGivesNoEmail%1,                    Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                    Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                      Annina%Zysset%NULL%2,                      Annina%Zysset%NULL%0,                      Nadine%Schlatter%NULL%1,                      Agnes%von Wyl%NULL%1,                      Marion%Huber%NULL%1,                      Thomas%Volken%NULL%2,                      Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                      Megan Chong Hueh%Zan%NULL%2,                      Megan Chong Hueh%Zan%NULL%0,                      Min Jung%Cho%NULL%1,                      Jenifer I.%Fenton%NULL%2,                      Jenifer I.%Fenton%NULL%0,                      Pao Ying%Hsiao%NULL%2,                      Pao Ying%Hsiao%NULL%0,                      Richard%Hsiao%NULL%1,                      Laura%Keaver%NULL%1,                      Chang-Chi%Lai%NULL%2,                      Chang-Chi%Lai%NULL%0,                      HeeSoon%Lee%NULL%1,                      Mary-Jon%Ludy%NULL%2,                      Mary-Jon%Ludy%NULL%0,                      Wan%Shen%NULL%1,                      Winnie Chee Siew%Swee%NULL%2,                      Winnie Chee Siew%Swee%NULL%0,                      Jyothi%Thrivikraman%NULL%2,                      Jyothi%Thrivikraman%NULL%0,                      Kuo-Wei%Tseng%NULL%1,                      Wei-Chin%Tseng%NULL%1,                      Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                      Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mirna%Fawaz%xref no email%0, Ali%Samaha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Hindawi Limited</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                      Shijiao%Yan%NULL%0,                      Qiao%Zong%NULL%1,                      Dan%Anderson-Luxford%NULL%1,                      Xingyue%Song%NULL%1,                      Zhiyue%Lv%NULL%1,                      Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                      Viera%Ivankova%NULL%2,                      Viera%Ivankova%NULL%0,                      Martin%Rigelsky%NULL%2,                      Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                      Ashraf A%Ewis%NULL%1,                      Eman M%Mahfouz%NULL%1,                      Doaa M%Khalil%NULL%1,                      Ahmed%Arafa%NULL%1,                      Zeinab%Mohammed%NULL%1,                      El-Nabgha F%Mohammed%NULL%1,                      Ebtesam E%Hassan%NULL%1,                      Sarah%Abdel Hamid%NULL%1,                      Somaya A%Ewis%NULL%1,                      Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                       Sabrina%Donati Zeppa%NULL%2,                       Sabrina%Donati Zeppa%NULL%0,                       Antonio%Preti%NULL%2,                       Antonio%Preti%NULL%0,                       Marco%Gervasi%NULL%2,                       Marco%Gervasi%NULL%0,                       Erica%Gobbi%NULL%2,                       Erica%Gobbi%NULL%0,                       Fabio%Ferrini%NULL%2,                       Fabio%Ferrini%NULL%0,                       Marco B. L.%Rocchi%NULL%1,                       Carlo%Baldari%NULL%2,                       Carlo%Baldari%NULL%0,                       Fabrizio%Perroni%NULL%2,                       Fabrizio%Perroni%NULL%0,                       Giovanni%Piccoli%NULL%2,                       Giovanni%Piccoli%NULL%0,                       Vilberto%Stocchi%NULL%1,                       Piero%Sestili%NULL%1,                       Davide%Sisti%NULL%2,                       Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                       Dominika%Ochnik%NULL%1,                       Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                     March%L%coreGivesNoEmail%1,                     Marshall%S.%coreGivesNoEmail%1,                     Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                       Cyril%Tarquinio%NULL%1,                       Martine%Batt%NULL%1,                       Pascale%Tarquinio%NULL%1,                       Romain%Lebreuilly%NULL%1,                       Christine%Sorsana%NULL%1,                       Karine%Legrand%NULL%1,                       Hélène%Rousseau%NULL%1,                       Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                       Shun-wei%Liang%NULL%1,                       Yang%Peng%NULL%1,                       Xue-guo%Li%NULL%1,                       Jian-bin%Chen%NULL%1,                       Si-yao%Tang%NULL%1,                       Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                       Benjamin%Becker%NULL%0,                       Qian%Yu%NULL%0,                       Peter%Willeit%NULL%0,                       Can%Jiao%NULL%0,                       Liuyue%Huang%NULL%0,                       M. Mahhub%Hossain%NULL%0,                       Igor%Grabovac%NULL%0,                       Albert%Yeung%NULL%0,                       Jingyuan%Lin%NULL%0,                       Nicola%Veronese%NULL%0,                       Jian%Wang%NULL%0,                       Xinqi%Zhou%NULL%0,                       Scott R.%Doig%NULL%0,                       Xiaofeng%Liu%NULL%0,                       Andre F.%Carvalho%NULL%0,                       Lin%Yang%NULL%0,                       Tao%Xiao%NULL%0,                       Liye%Zou%NULL%0,                       Paolo%Fusar-Poli%NULL%0,                       Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                       Foster Kofi%Ayittey%NULL%2,                       Foster Kofi%Ayittey%NULL%0,                       Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                     Lovibond%P.%coreGivesNoEmail%1,                     Lozano%M.%coreGivesNoEmail%1,                     Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                     Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                       Annina%Zysset%NULL%2,                       Annina%Zysset%NULL%0,                       Nadine%Schlatter%NULL%1,                       Agnes%von Wyl%NULL%1,                       Marion%Huber%NULL%1,                       Thomas%Volken%NULL%2,                       Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                       Megan Chong Hueh%Zan%NULL%2,                       Megan Chong Hueh%Zan%NULL%0,                       Min Jung%Cho%NULL%1,                       Jenifer I.%Fenton%NULL%2,                       Jenifer I.%Fenton%NULL%0,                       Pao Ying%Hsiao%NULL%2,                       Pao Ying%Hsiao%NULL%0,                       Richard%Hsiao%NULL%1,                       Laura%Keaver%NULL%1,                       Chang-Chi%Lai%NULL%2,                       Chang-Chi%Lai%NULL%0,                       HeeSoon%Lee%NULL%1,                       Mary-Jon%Ludy%NULL%2,                       Mary-Jon%Ludy%NULL%0,                       Wan%Shen%NULL%1,                       Winnie Chee Siew%Swee%NULL%2,                       Winnie Chee Siew%Swee%NULL%0,                       Jyothi%Thrivikraman%NULL%2,                       Jyothi%Thrivikraman%NULL%0,                       Kuo-Wei%Tseng%NULL%1,                       Wei-Chin%Tseng%NULL%1,                       Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                       Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                       Shijiao%Yan%NULL%0,                       Qiao%Zong%NULL%1,                       Dan%Anderson-Luxford%NULL%1,                       Xingyue%Song%NULL%1,                       Zhiyue%Lv%NULL%1,                       Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                       Viera%Ivankova%NULL%2,                       Viera%Ivankova%NULL%0,                       Martin%Rigelsky%NULL%2,                       Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                       Ashraf A%Ewis%NULL%1,                       Eman M%Mahfouz%NULL%1,                       Doaa M%Khalil%NULL%1,                       Ahmed%Arafa%NULL%1,                       Zeinab%Mohammed%NULL%1,                       El-Nabgha F%Mohammed%NULL%1,                       Ebtesam E%Hassan%NULL%1,                       Sarah%Abdel Hamid%NULL%1,                       Somaya A%Ewis%NULL%1,                       Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                        Sabrina%Donati Zeppa%NULL%2,                        Sabrina%Donati Zeppa%NULL%0,                        Antonio%Preti%NULL%2,                        Antonio%Preti%NULL%0,                        Marco%Gervasi%NULL%2,                        Marco%Gervasi%NULL%0,                        Erica%Gobbi%NULL%2,                        Erica%Gobbi%NULL%0,                        Fabio%Ferrini%NULL%2,                        Fabio%Ferrini%NULL%0,                        Marco B. L.%Rocchi%NULL%1,                        Carlo%Baldari%NULL%2,                        Carlo%Baldari%NULL%0,                        Fabrizio%Perroni%NULL%2,                        Fabrizio%Perroni%NULL%0,                        Giovanni%Piccoli%NULL%2,                        Giovanni%Piccoli%NULL%0,                        Vilberto%Stocchi%NULL%1,                        Piero%Sestili%NULL%1,                        Davide%Sisti%NULL%2,                        Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                        Dominika%Ochnik%NULL%1,                        Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                      March%L%coreGivesNoEmail%1,                      Marshall%S.%coreGivesNoEmail%1,                      Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                        Cyril%Tarquinio%NULL%1,                        Martine%Batt%NULL%1,                        Pascale%Tarquinio%NULL%1,                        Romain%Lebreuilly%NULL%1,                        Christine%Sorsana%NULL%1,                        Karine%Legrand%NULL%1,                        Hélène%Rousseau%NULL%1,                        Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                        Shun-wei%Liang%NULL%1,                        Yang%Peng%NULL%1,                        Xue-guo%Li%NULL%1,                        Jian-bin%Chen%NULL%1,                        Si-yao%Tang%NULL%1,                        Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                        Benjamin%Becker%NULL%0,                        Qian%Yu%NULL%0,                        Peter%Willeit%NULL%0,                        Can%Jiao%NULL%0,                        Liuyue%Huang%NULL%0,                        M. Mahhub%Hossain%NULL%0,                        Igor%Grabovac%NULL%0,                        Albert%Yeung%NULL%0,                        Jingyuan%Lin%NULL%0,                        Nicola%Veronese%NULL%0,                        Jian%Wang%NULL%0,                        Xinqi%Zhou%NULL%0,                        Scott R.%Doig%NULL%0,                        Xiaofeng%Liu%NULL%0,                        Andre F.%Carvalho%NULL%0,                        Lin%Yang%NULL%0,                        Tao%Xiao%NULL%0,                        Liye%Zou%NULL%0,                        Paolo%Fusar-Poli%NULL%0,                        Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                        Foster Kofi%Ayittey%NULL%2,                        Foster Kofi%Ayittey%NULL%0,                        Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                      Lovibond%P.%coreGivesNoEmail%1,                      Lozano%M.%coreGivesNoEmail%1,                      Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                      Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                        Annina%Zysset%NULL%2,                        Annina%Zysset%NULL%0,                        Nadine%Schlatter%NULL%1,                        Agnes%von Wyl%NULL%1,                        Marion%Huber%NULL%1,                        Thomas%Volken%NULL%2,                        Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                        Megan Chong Hueh%Zan%NULL%2,                        Megan Chong Hueh%Zan%NULL%0,                        Min Jung%Cho%NULL%1,                        Jenifer I.%Fenton%NULL%2,                        Jenifer I.%Fenton%NULL%0,                        Pao Ying%Hsiao%NULL%2,                        Pao Ying%Hsiao%NULL%0,                        Richard%Hsiao%NULL%1,                        Laura%Keaver%NULL%1,                        Chang-Chi%Lai%NULL%2,                        Chang-Chi%Lai%NULL%0,                        HeeSoon%Lee%NULL%1,                        Mary-Jon%Ludy%NULL%2,                        Mary-Jon%Ludy%NULL%0,                        Wan%Shen%NULL%1,                        Winnie Chee Siew%Swee%NULL%2,                        Winnie Chee Siew%Swee%NULL%0,                        Jyothi%Thrivikraman%NULL%2,                        Jyothi%Thrivikraman%NULL%0,                        Kuo-Wei%Tseng%NULL%1,                        Wei-Chin%Tseng%NULL%1,                        Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                        Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                        Shijiao%Yan%NULL%0,                        Qiao%Zong%NULL%1,                        Dan%Anderson-Luxford%NULL%1,                        Xingyue%Song%NULL%1,                        Zhiyue%Lv%NULL%1,                        Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                        Viera%Ivankova%NULL%2,                        Viera%Ivankova%NULL%0,                        Martin%Rigelsky%NULL%2,                        Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                        Ashraf A%Ewis%NULL%1,                        Eman M%Mahfouz%NULL%1,                        Doaa M%Khalil%NULL%1,                        Ahmed%Arafa%NULL%1,                        Zeinab%Mohammed%NULL%1,                        El-Nabgha F%Mohammed%NULL%1,                        Ebtesam E%Hassan%NULL%1,                        Sarah%Abdel Hamid%NULL%1,                        Somaya A%Ewis%NULL%1,                        Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                         Sabrina%Donati Zeppa%NULL%2,                         Sabrina%Donati Zeppa%NULL%0,                         Antonio%Preti%NULL%2,                         Antonio%Preti%NULL%0,                         Marco%Gervasi%NULL%2,                         Marco%Gervasi%NULL%0,                         Erica%Gobbi%NULL%2,                         Erica%Gobbi%NULL%0,                         Fabio%Ferrini%NULL%2,                         Fabio%Ferrini%NULL%0,                         Marco B. L.%Rocchi%NULL%1,                         Carlo%Baldari%NULL%2,                         Carlo%Baldari%NULL%0,                         Fabrizio%Perroni%NULL%2,                         Fabrizio%Perroni%NULL%0,                         Giovanni%Piccoli%NULL%2,                         Giovanni%Piccoli%NULL%0,                         Vilberto%Stocchi%NULL%1,                         Piero%Sestili%NULL%1,                         Davide%Sisti%NULL%2,                         Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                         Dominika%Ochnik%NULL%1,                         Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                       March%L%coreGivesNoEmail%1,                       Marshall%S.%coreGivesNoEmail%1,                       Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                         Cyril%Tarquinio%NULL%1,                         Martine%Batt%NULL%1,                         Pascale%Tarquinio%NULL%1,                         Romain%Lebreuilly%NULL%1,                         Christine%Sorsana%NULL%1,                         Karine%Legrand%NULL%1,                         Hélène%Rousseau%NULL%1,                         Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                         Shun-wei%Liang%NULL%1,                         Yang%Peng%NULL%1,                         Xue-guo%Li%NULL%1,                         Jian-bin%Chen%NULL%1,                         Si-yao%Tang%NULL%1,                         Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                         Benjamin%Becker%NULL%0,                         Qian%Yu%NULL%0,                         Peter%Willeit%NULL%0,                         Can%Jiao%NULL%0,                         Liuyue%Huang%NULL%0,                         M. Mahhub%Hossain%NULL%0,                         Igor%Grabovac%NULL%0,                         Albert%Yeung%NULL%0,                         Jingyuan%Lin%NULL%0,                         Nicola%Veronese%NULL%0,                         Jian%Wang%NULL%0,                         Xinqi%Zhou%NULL%0,                         Scott R.%Doig%NULL%0,                         Xiaofeng%Liu%NULL%0,                         Andre F.%Carvalho%NULL%0,                         Lin%Yang%NULL%0,                         Tao%Xiao%NULL%0,                         Liye%Zou%NULL%0,                         Paolo%Fusar-Poli%NULL%0,                         Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                         Foster Kofi%Ayittey%NULL%2,                         Foster Kofi%Ayittey%NULL%0,                         Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                       Lovibond%P.%coreGivesNoEmail%1,                       Lozano%M.%coreGivesNoEmail%1,                       Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                       Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                         Annina%Zysset%NULL%2,                         Annina%Zysset%NULL%0,                         Nadine%Schlatter%NULL%1,                         Agnes%von Wyl%NULL%1,                         Marion%Huber%NULL%1,                         Thomas%Volken%NULL%2,                         Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                         Megan Chong Hueh%Zan%NULL%2,                         Megan Chong Hueh%Zan%NULL%0,                         Min Jung%Cho%NULL%1,                         Jenifer I.%Fenton%NULL%2,                         Jenifer I.%Fenton%NULL%0,                         Pao Ying%Hsiao%NULL%2,                         Pao Ying%Hsiao%NULL%0,                         Richard%Hsiao%NULL%1,                         Laura%Keaver%NULL%1,                         Chang-Chi%Lai%NULL%2,                         Chang-Chi%Lai%NULL%0,                         HeeSoon%Lee%NULL%1,                         Mary-Jon%Ludy%NULL%2,                         Mary-Jon%Ludy%NULL%0,                         Wan%Shen%NULL%1,                         Winnie Chee Siew%Swee%NULL%2,                         Winnie Chee Siew%Swee%NULL%0,                         Jyothi%Thrivikraman%NULL%2,                         Jyothi%Thrivikraman%NULL%0,                         Kuo-Wei%Tseng%NULL%1,                         Wei-Chin%Tseng%NULL%1,                         Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                         Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                         Shijiao%Yan%NULL%0,                         Qiao%Zong%NULL%1,                         Dan%Anderson-Luxford%NULL%1,                         Xingyue%Song%NULL%1,                         Zhiyue%Lv%NULL%1,                         Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                         Viera%Ivankova%NULL%2,                         Viera%Ivankova%NULL%0,                         Martin%Rigelsky%NULL%2,                         Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                         Ashraf A%Ewis%NULL%1,                         Eman M%Mahfouz%NULL%1,                         Doaa M%Khalil%NULL%1,                         Ahmed%Arafa%NULL%1,                         Zeinab%Mohammed%NULL%1,                         El-Nabgha F%Mohammed%NULL%1,                         Ebtesam E%Hassan%NULL%1,                         Sarah%Abdel Hamid%NULL%1,                         Somaya A%Ewis%NULL%1,                         Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                          Sabrina%Donati Zeppa%NULL%2,                          Sabrina%Donati Zeppa%NULL%0,                          Antonio%Preti%NULL%2,                          Antonio%Preti%NULL%0,                          Marco%Gervasi%NULL%2,                          Marco%Gervasi%NULL%0,                          Erica%Gobbi%NULL%2,                          Erica%Gobbi%NULL%0,                          Fabio%Ferrini%NULL%2,                          Fabio%Ferrini%NULL%0,                          Marco B. L.%Rocchi%NULL%1,                          Carlo%Baldari%NULL%2,                          Carlo%Baldari%NULL%0,                          Fabrizio%Perroni%NULL%2,                          Fabrizio%Perroni%NULL%0,                          Giovanni%Piccoli%NULL%2,                          Giovanni%Piccoli%NULL%0,                          Vilberto%Stocchi%NULL%1,                          Piero%Sestili%NULL%1,                          Davide%Sisti%NULL%2,                          Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                          Dominika%Ochnik%NULL%1,                          Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                        March%L%coreGivesNoEmail%1,                        Marshall%S.%coreGivesNoEmail%1,                        Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                          Cyril%Tarquinio%NULL%1,                          Martine%Batt%NULL%1,                          Pascale%Tarquinio%NULL%1,                          Romain%Lebreuilly%NULL%1,                          Christine%Sorsana%NULL%1,                          Karine%Legrand%NULL%1,                          Hélène%Rousseau%NULL%1,                          Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                          Shun-wei%Liang%NULL%1,                          Yang%Peng%NULL%1,                          Xue-guo%Li%NULL%1,                          Jian-bin%Chen%NULL%1,                          Si-yao%Tang%NULL%1,                          Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                          Benjamin%Becker%NULL%0,                          Qian%Yu%NULL%0,                          Peter%Willeit%NULL%0,                          Can%Jiao%NULL%0,                          Liuyue%Huang%NULL%0,                          M. Mahhub%Hossain%NULL%0,                          Igor%Grabovac%NULL%0,                          Albert%Yeung%NULL%0,                          Jingyuan%Lin%NULL%0,                          Nicola%Veronese%NULL%0,                          Jian%Wang%NULL%0,                          Xinqi%Zhou%NULL%0,                          Scott R.%Doig%NULL%0,                          Xiaofeng%Liu%NULL%0,                          Andre F.%Carvalho%NULL%0,                          Lin%Yang%NULL%0,                          Tao%Xiao%NULL%0,                          Liye%Zou%NULL%0,                          Paolo%Fusar-Poli%NULL%0,                          Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                          Foster Kofi%Ayittey%NULL%2,                          Foster Kofi%Ayittey%NULL%0,                          Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                        Lovibond%P.%coreGivesNoEmail%1,                        Lozano%M.%coreGivesNoEmail%1,                        Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                        Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                          Annina%Zysset%NULL%2,                          Annina%Zysset%NULL%0,                          Nadine%Schlatter%NULL%1,                          Agnes%von Wyl%NULL%1,                          Marion%Huber%NULL%1,                          Thomas%Volken%NULL%2,                          Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                          Megan Chong Hueh%Zan%NULL%2,                          Megan Chong Hueh%Zan%NULL%0,                          Min Jung%Cho%NULL%1,                          Jenifer I.%Fenton%NULL%2,                          Jenifer I.%Fenton%NULL%0,                          Pao Ying%Hsiao%NULL%2,                          Pao Ying%Hsiao%NULL%0,                          Richard%Hsiao%NULL%1,                          Laura%Keaver%NULL%1,                          Chang-Chi%Lai%NULL%2,                          Chang-Chi%Lai%NULL%0,                          HeeSoon%Lee%NULL%1,                          Mary-Jon%Ludy%NULL%2,                          Mary-Jon%Ludy%NULL%0,                          Wan%Shen%NULL%1,                          Winnie Chee Siew%Swee%NULL%2,                          Winnie Chee Siew%Swee%NULL%0,                          Jyothi%Thrivikraman%NULL%2,                          Jyothi%Thrivikraman%NULL%0,                          Kuo-Wei%Tseng%NULL%1,                          Wei-Chin%Tseng%NULL%1,                          Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                          Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                          Shijiao%Yan%NULL%0,                          Qiao%Zong%NULL%1,                          Dan%Anderson-Luxford%NULL%1,                          Xingyue%Song%NULL%1,                          Zhiyue%Lv%NULL%1,                          Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                          Viera%Ivankova%NULL%2,                          Viera%Ivankova%NULL%0,                          Martin%Rigelsky%NULL%2,                          Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                          Ashraf A%Ewis%NULL%1,                          Eman M%Mahfouz%NULL%1,                          Doaa M%Khalil%NULL%1,                          Ahmed%Arafa%NULL%1,                          Zeinab%Mohammed%NULL%1,                          El-Nabgha F%Mohammed%NULL%1,                          Ebtesam E%Hassan%NULL%1,                          Sarah%Abdel Hamid%NULL%1,                          Somaya A%Ewis%NULL%1,                          Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1654,6 +1876,9 @@
       <c r="I1" t="s">
         <v>134</v>
       </c>
+      <c r="J1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1669,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>455</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1682,6 +1907,9 @@
       </c>
       <c r="I2" t="s">
         <v>363</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -1698,7 +1926,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>456</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1711,6 +1939,9 @@
       </c>
       <c r="I3" t="s">
         <v>363</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -1741,6 +1972,9 @@
       <c r="I4" t="s">
         <v>365</v>
       </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
@@ -1756,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1769,6 +2003,9 @@
       </c>
       <c r="I5" t="s">
         <v>365</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -1785,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1798,6 +2035,9 @@
       </c>
       <c r="I6" t="s">
         <v>368</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -1814,7 +2054,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1827,6 +2067,9 @@
       </c>
       <c r="I7" t="s">
         <v>368</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -1843,7 +2086,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1856,6 +2099,9 @@
       </c>
       <c r="I8" t="s">
         <v>363</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -1872,7 +2118,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1885,6 +2131,9 @@
       </c>
       <c r="I9" t="s">
         <v>363</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -1901,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1914,6 +2163,9 @@
       </c>
       <c r="I10" t="s">
         <v>365</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1930,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -1943,6 +2195,9 @@
       </c>
       <c r="I11" t="s">
         <v>363</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -1959,7 +2214,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1972,6 +2227,9 @@
       </c>
       <c r="I12" t="s">
         <v>363</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -1988,7 +2246,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2001,6 +2259,9 @@
       </c>
       <c r="I13" t="s">
         <v>368</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2017,7 +2278,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2026,10 +2287,13 @@
         <v>207</v>
       </c>
       <c r="H14" t="s">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="I14" t="s">
-        <v>365</v>
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="15">
@@ -2046,7 +2310,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -2059,6 +2323,9 @@
       </c>
       <c r="I15" t="s">
         <v>368</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2075,7 +2342,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2088,6 +2355,9 @@
       </c>
       <c r="I16" t="s">
         <v>363</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17">
@@ -2104,7 +2374,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -2117,6 +2387,9 @@
       </c>
       <c r="I17" t="s">
         <v>363</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/74.xlsx
+++ b/Covid_19_Dataset_and_References/References/74.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="497">
   <si>
     <t>Doi</t>
   </si>
@@ -1515,6 +1515,90 @@
   </si>
   <si>
     <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                          Ashraf A%Ewis%NULL%1,                          Eman M%Mahfouz%NULL%1,                          Doaa M%Khalil%NULL%1,                          Ahmed%Arafa%NULL%1,                          Zeinab%Mohammed%NULL%1,                          El-Nabgha F%Mohammed%NULL%1,                          Ebtesam E%Hassan%NULL%1,                          Sarah%Abdel Hamid%NULL%1,                          Somaya A%Ewis%NULL%1,                          Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                           Sabrina%Donati Zeppa%NULL%2,                           Sabrina%Donati Zeppa%NULL%0,                           Antonio%Preti%NULL%2,                           Antonio%Preti%NULL%0,                           Marco%Gervasi%NULL%2,                           Marco%Gervasi%NULL%0,                           Erica%Gobbi%NULL%2,                           Erica%Gobbi%NULL%0,                           Fabio%Ferrini%NULL%2,                           Fabio%Ferrini%NULL%0,                           Marco B. L.%Rocchi%NULL%1,                           Carlo%Baldari%NULL%2,                           Carlo%Baldari%NULL%0,                           Fabrizio%Perroni%NULL%2,                           Fabrizio%Perroni%NULL%0,                           Giovanni%Piccoli%NULL%2,                           Giovanni%Piccoli%NULL%0,                           Vilberto%Stocchi%NULL%1,                           Piero%Sestili%NULL%1,                           Davide%Sisti%NULL%2,                           Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                           Dominika%Ochnik%NULL%1,                           Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                         March%L%coreGivesNoEmail%1,                         Marshall%S.%coreGivesNoEmail%1,                         Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                           Cyril%Tarquinio%NULL%1,                           Martine%Batt%NULL%1,                           Pascale%Tarquinio%NULL%1,                           Romain%Lebreuilly%NULL%1,                           Christine%Sorsana%NULL%1,                           Karine%Legrand%NULL%1,                           Hélène%Rousseau%NULL%1,                           Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                           Shun-wei%Liang%NULL%1,                           Yang%Peng%NULL%1,                           Xue-guo%Li%NULL%1,                           Jian-bin%Chen%NULL%1,                           Si-yao%Tang%NULL%1,                           Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                           Benjamin%Becker%NULL%0,                           Qian%Yu%NULL%0,                           Peter%Willeit%NULL%0,                           Can%Jiao%NULL%0,                           Liuyue%Huang%NULL%0,                           M. Mahhub%Hossain%NULL%0,                           Igor%Grabovac%NULL%0,                           Albert%Yeung%NULL%0,                           Jingyuan%Lin%NULL%0,                           Nicola%Veronese%NULL%0,                           Jian%Wang%NULL%0,                           Xinqi%Zhou%NULL%0,                           Scott R.%Doig%NULL%0,                           Xiaofeng%Liu%NULL%0,                           Andre F.%Carvalho%NULL%0,                           Lin%Yang%NULL%0,                           Tao%Xiao%NULL%0,                           Liye%Zou%NULL%0,                           Paolo%Fusar-Poli%NULL%0,                           Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                           Foster Kofi%Ayittey%NULL%2,                           Foster Kofi%Ayittey%NULL%0,                           Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                         Lovibond%P.%coreGivesNoEmail%1,                         Lozano%M.%coreGivesNoEmail%1,                         Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                         Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                           Annina%Zysset%NULL%2,                           Annina%Zysset%NULL%0,                           Nadine%Schlatter%NULL%1,                           Agnes%von Wyl%NULL%1,                           Marion%Huber%NULL%1,                           Thomas%Volken%NULL%2,                           Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                           Megan Chong Hueh%Zan%NULL%2,                           Megan Chong Hueh%Zan%NULL%0,                           Min Jung%Cho%NULL%1,                           Jenifer I.%Fenton%NULL%2,                           Jenifer I.%Fenton%NULL%0,                           Pao Ying%Hsiao%NULL%2,                           Pao Ying%Hsiao%NULL%0,                           Richard%Hsiao%NULL%1,                           Laura%Keaver%NULL%1,                           Chang-Chi%Lai%NULL%2,                           Chang-Chi%Lai%NULL%0,                           HeeSoon%Lee%NULL%1,                           Mary-Jon%Ludy%NULL%2,                           Mary-Jon%Ludy%NULL%0,                           Wan%Shen%NULL%1,                           Winnie Chee Siew%Swee%NULL%2,                           Winnie Chee Siew%Swee%NULL%0,                           Jyothi%Thrivikraman%NULL%2,                           Jyothi%Thrivikraman%NULL%0,                           Kuo-Wei%Tseng%NULL%1,                           Wei-Chin%Tseng%NULL%1,                           Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                           Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                           Shijiao%Yan%NULL%0,                           Qiao%Zong%NULL%1,                           Dan%Anderson-Luxford%NULL%1,                           Xingyue%Song%NULL%1,                           Zhiyue%Lv%NULL%1,                           Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                           Viera%Ivankova%NULL%2,                           Viera%Ivankova%NULL%0,                           Martin%Rigelsky%NULL%2,                           Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                           Ashraf A%Ewis%NULL%1,                           Eman M%Mahfouz%NULL%1,                           Doaa M%Khalil%NULL%1,                           Ahmed%Arafa%NULL%1,                           Zeinab%Mohammed%NULL%1,                           El-Nabgha F%Mohammed%NULL%1,                           Ebtesam E%Hassan%NULL%1,                           Sarah%Abdel Hamid%NULL%1,                           Somaya A%Ewis%NULL%1,                           Abd El-Nassir S%Mohammed%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stefano%Amatori%NULL%1,                            Sabrina%Donati Zeppa%NULL%2,                            Sabrina%Donati Zeppa%NULL%0,                            Antonio%Preti%NULL%2,                            Antonio%Preti%NULL%0,                            Marco%Gervasi%NULL%2,                            Marco%Gervasi%NULL%0,                            Erica%Gobbi%NULL%2,                            Erica%Gobbi%NULL%0,                            Fabio%Ferrini%NULL%2,                            Fabio%Ferrini%NULL%0,                            Marco B. L.%Rocchi%NULL%1,                            Carlo%Baldari%NULL%2,                            Carlo%Baldari%NULL%0,                            Fabrizio%Perroni%NULL%2,                            Fabrizio%Perroni%NULL%0,                            Giovanni%Piccoli%NULL%2,                            Giovanni%Piccoli%NULL%0,                            Vilberto%Stocchi%NULL%1,                            Piero%Sestili%NULL%1,                            Davide%Sisti%NULL%2,                            Davide%Sisti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Imran%Aslan%NULL%1,                            Dominika%Ochnik%NULL%1,                            Orhan%Çınar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biber%D%coreGivesNoEmail%1,                          March%L%coreGivesNoEmail%1,                          Marshall%S.%coreGivesNoEmail%1,                          Schmidt%SW%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Stéphanie%Bourion-Bédès%NULL%1,                            Cyril%Tarquinio%NULL%1,                            Martine%Batt%NULL%1,                            Pascale%Tarquinio%NULL%1,                            Romain%Lebreuilly%NULL%1,                            Christine%Sorsana%NULL%1,                            Karine%Legrand%NULL%1,                            Hélène%Rousseau%NULL%1,                            Cédric%Baumann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-ning%Chen%NULL%1,                            Shun-wei%Liang%NULL%1,                            Yang%Peng%NULL%1,                            Xue-guo%Li%NULL%1,                            Jian-bin%Chen%NULL%1,                            Si-yao%Tang%NULL%1,                            Jing-bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0,                            Benjamin%Becker%NULL%0,                            Qian%Yu%NULL%0,                            Peter%Willeit%NULL%0,                            Can%Jiao%NULL%0,                            Liuyue%Huang%NULL%0,                            M. Mahhub%Hossain%NULL%0,                            Igor%Grabovac%NULL%0,                            Albert%Yeung%NULL%0,                            Jingyuan%Lin%NULL%0,                            Nicola%Veronese%NULL%0,                            Jian%Wang%NULL%0,                            Xinqi%Zhou%NULL%0,                            Scott R.%Doig%NULL%0,                            Xiaofeng%Liu%NULL%0,                            Andre F.%Carvalho%NULL%0,                            Lin%Yang%NULL%0,                            Tao%Xiao%NULL%0,                            Liye%Zou%NULL%0,                            Paolo%Fusar-Poli%NULL%0,                            Marco%Solmi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bablu Kumar%Dhar%drbablu.ba@diu.edu.bd%1,                            Foster Kofi%Ayittey%NULL%2,                            Foster Kofi%Ayittey%NULL%0,                            Sabrina Maria%Sarkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liu%X.%coreGivesNoEmail%1,                          Lovibond%P.%coreGivesNoEmail%1,                          Lozano%M.%coreGivesNoEmail%1,                          Mosqueda%D\u00edaz A.%coreGivesNoEmail%1,                          Ozamiz-Etxebarria%N.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Dratva%NULL%1,                            Annina%Zysset%NULL%2,                            Annina%Zysset%NULL%0,                            Nadine%Schlatter%NULL%1,                            Agnes%von Wyl%NULL%1,                            Marion%Huber%NULL%1,                            Thomas%Volken%NULL%2,                            Thomas%Volken%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Du%NULL%1,                            Megan Chong Hueh%Zan%NULL%2,                            Megan Chong Hueh%Zan%NULL%0,                            Min Jung%Cho%NULL%1,                            Jenifer I.%Fenton%NULL%2,                            Jenifer I.%Fenton%NULL%0,                            Pao Ying%Hsiao%NULL%2,                            Pao Ying%Hsiao%NULL%0,                            Richard%Hsiao%NULL%1,                            Laura%Keaver%NULL%1,                            Chang-Chi%Lai%NULL%2,                            Chang-Chi%Lai%NULL%0,                            HeeSoon%Lee%NULL%1,                            Mary-Jon%Ludy%NULL%2,                            Mary-Jon%Ludy%NULL%0,                            Wan%Shen%NULL%1,                            Winnie Chee Siew%Swee%NULL%2,                            Winnie Chee Siew%Swee%NULL%0,                            Jyothi%Thrivikraman%NULL%2,                            Jyothi%Thrivikraman%NULL%0,                            Kuo-Wei%Tseng%NULL%1,                            Wei-Chin%Tseng%NULL%1,                            Robin M.%Tucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aziz%Essadek%NULL%1,                            Thomas%Rabeyron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenning%Fu%NULL%1,                            Shijiao%Yan%NULL%0,                            Qiao%Zong%NULL%1,                            Dan%Anderson-Luxford%NULL%1,                            Xingyue%Song%NULL%1,                            Zhiyue%Lv%NULL%1,                            Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Beata%Gavurova%NULL%1,                            Viera%Ivankova%NULL%2,                            Viera%Ivankova%NULL%0,                            Martin%Rigelsky%NULL%2,                            Martin%Rigelsky%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eman R%Ghazawy%emanghazawy@yahoo.com%1,                            Ashraf A%Ewis%NULL%1,                            Eman M%Mahfouz%NULL%1,                            Doaa M%Khalil%NULL%1,                            Ahmed%Arafa%NULL%1,                            Zeinab%Mohammed%NULL%1,                            El-Nabgha F%Mohammed%NULL%1,                            Ebtesam E%Hassan%NULL%1,                            Sarah%Abdel Hamid%NULL%1,                            Somaya A%Ewis%NULL%1,                            Abd El-Nassir S%Mohammed%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1978,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -1926,7 +2010,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1990,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2022,7 +2106,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2054,7 +2138,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2086,7 +2170,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -2118,7 +2202,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2150,7 +2234,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2182,7 +2266,7 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
@@ -2214,7 +2298,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2246,7 +2330,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2278,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2310,7 +2394,7 @@
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -2342,7 +2426,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2374,7 +2458,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
